--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="fmax_IPS" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
   <si>
     <t>1KB</t>
   </si>
@@ -56,37 +56,81 @@
   <si>
     <t>IPC</t>
   </si>
+  <si>
+    <t>8 HOB</t>
+  </si>
+  <si>
+    <t>7 HOB</t>
+  </si>
+  <si>
+    <t>6 HOB</t>
+  </si>
+  <si>
+    <t>5 HOB</t>
+  </si>
+  <si>
+    <t>4 HOB</t>
+  </si>
+  <si>
+    <t>3 HOB</t>
+  </si>
+  <si>
+    <t>2 HOB</t>
+  </si>
+  <si>
+    <t>1 HOB</t>
+  </si>
+  <si>
+    <t>per1024_16</t>
+  </si>
+  <si>
+    <t>O-TAGE</t>
+  </si>
+  <si>
+    <t>O-TAGE-SC</t>
+  </si>
+  <si>
+    <t>Single-Cycle TAGE</t>
+  </si>
+  <si>
+    <t>Perceptron</t>
+  </si>
+  <si>
+    <t>Fmax</t>
+  </si>
+  <si>
+    <t>GShare</t>
+  </si>
+  <si>
+    <t>Gshare 1KB</t>
+  </si>
+  <si>
+    <t>Bimodal 1KB</t>
+  </si>
+  <si>
+    <t>Perceptron 1KB</t>
+  </si>
+  <si>
+    <t>MIPS</t>
+  </si>
+  <si>
+    <t>GRselect 1KB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -105,73 +149,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Perceptron Accuracy</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -202,6 +215,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$B$14:$G$14</c:f>
@@ -256,15 +270,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60407168"/>
-        <c:axId val="62542976"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="114685440"/>
+        <c:axId val="114686976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60407168"/>
+        <c:axId val="114685440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -279,17 +305,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62542976"/>
+        <c:crossAx val="114686976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62542976"/>
+        <c:axId val="114686976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -299,10 +327,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
                   </a:rPr>
@@ -312,8 +340,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -328,13 +359,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60407168"/>
+        <c:crossAx val="114685440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -344,7 +377,1830 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$B$19:$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8 HOB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7 HOB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6 HOB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5 HOB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 HOB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 HOB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 HOB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1 HOB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.32747999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32761000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32762000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32735999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32729000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30529000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="116148864"/>
+        <c:axId val="116162944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="116148864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116162944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116162944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0317456254476941E-2"/>
+              <c:y val="0.39632327209098861"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116148864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$B$33:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32911000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="116178944"/>
+        <c:axId val="116180480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="116178944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116180480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116180480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116178944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$44:$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$B$44:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="115956352"/>
+        <c:axId val="115958144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="115956352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="115958144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115958144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="115956352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>259.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>238.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262.48200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>258.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235.84200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="zigZag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>254.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>229.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="lgConfetti">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>255.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206.97200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>248.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>197.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.99199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270.18799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="114"/>
+        <c:axId val="116016256"/>
+        <c:axId val="116017792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="116016256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116017792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116017792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="280"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>FMax (MHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116016256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MIPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$32:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect 1KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare 1KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal 1KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron 1KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$B$32:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>84.499800000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.900270000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.547200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.7029414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.243712000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.918870799999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="144379904"/>
+        <c:axId val="144381440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="144379904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144381440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144381440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Million Instructions Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144379904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmax_IPS!$B$51:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$B$52:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>88.460099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.065899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.674400000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.288300000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.902199999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.532299999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.175899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRselect 1KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fmax_IPS!$B$51:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$B$53:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>83.957235999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.41467200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.887684000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.371080000000021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.859668000000013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.356044000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.867996000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="121589760"/>
+        <c:axId val="121592832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121589760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Branch Resolve Latency (cycles)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121592832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121592832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Million Instructions Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121589760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -353,16 +2209,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -376,6 +2232,191 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -459,6 +2500,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -493,6 +2535,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,228 +2711,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>0.32550000000000001</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>0.32590000000000002</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>0.32640000000000002</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>0.32690000000000002</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>0.32719999999999999</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>0.3276</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="1" t="s">
+      <c r="H2">
+        <f>MAX(B2:G2)</f>
+        <v>0.3276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.32850000000000001</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.33029999999999998</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.33050000000000002</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.33050000000000002</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="B3">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.3276</v>
+      </c>
+      <c r="D3">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.32829999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.32840000000000003</v>
+      </c>
+      <c r="G3">
         <v>0.3286</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A4" s="2" t="s">
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="0">MAX(B3:G3)</f>
+        <v>0.3286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>0.3236</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>0.32450000000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>0.32469999999999999</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>0.32479999999999998</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>0.32479999999999998</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="1" t="s">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.3251</v>
+      </c>
+      <c r="E5">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.32719999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.3291</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.3291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>0.3296</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.3296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
         <v>0.32250000000000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C15">
         <v>0.32400000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D15">
         <v>0.32540000000000002</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E15">
         <v>0.32650000000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F15">
         <v>0.32729999999999998</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G15">
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.32747999999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.32761000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.32762000000000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.32735999999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.32729000000000003</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.3206</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.30529000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f>G20/B20</f>
+        <v>0.99941981189690987</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>0.3296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>0.32440000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>0.32911000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>B35/B33</f>
+        <v>0.99851334951456316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>0.3276</v>
+      </c>
+      <c r="C44">
+        <f>B44/$B$44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>0.3286</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:C49" si="1">B45/$B$44</f>
+        <v>1.003052503052503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.99206349206349209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.99877899877899878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48">
         <v>0.3291</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3">
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>1.0045787545787546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
         <v>0.3296</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.32250000000000001</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.32540000000000002</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.32650000000000001</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.32729999999999998</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.32719999999999999</v>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>1.0061050061050061</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="C3">
+        <v>258.3</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
+      </c>
+      <c r="E3">
+        <v>254.2</v>
+      </c>
+      <c r="F3">
+        <v>255.8</v>
+      </c>
+      <c r="G3">
+        <v>248.94800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>238.3</v>
+      </c>
+      <c r="C4">
+        <v>235.7</v>
+      </c>
+      <c r="D4">
+        <v>228.4</v>
+      </c>
+      <c r="E4">
+        <v>219.6</v>
+      </c>
+      <c r="F4">
+        <v>217.9</v>
+      </c>
+      <c r="G4">
+        <v>197.11199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>252</v>
+      </c>
+      <c r="C5">
+        <v>243.5</v>
+      </c>
+      <c r="D5">
+        <v>234.9</v>
+      </c>
+      <c r="E5">
+        <v>229.7</v>
+      </c>
+      <c r="F5">
+        <v>217.2</v>
+      </c>
+      <c r="G5">
+        <v>200.99199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>262.48200000000003</v>
+      </c>
+      <c r="C6">
+        <v>235.84200000000001</v>
+      </c>
+      <c r="D6">
+        <v>227.55</v>
+      </c>
+      <c r="E6">
+        <v>213.74</v>
+      </c>
+      <c r="F6">
+        <v>206.97200000000001</v>
+      </c>
+      <c r="G6">
+        <v>165.018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>222.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>270.18799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.3276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.3276</v>
+      </c>
+      <c r="D14">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.32829999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.32840000000000003</v>
+      </c>
+      <c r="G14">
+        <v>0.3286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0.3236</v>
+      </c>
+      <c r="C15">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.3251</v>
+      </c>
+      <c r="E16">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.32719999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>0.3296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>0.3291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <f>B13*B3</f>
+        <v>84.499800000000008</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:G23" si="0">C13*C3</f>
+        <v>84.179970000000012</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>83.231999999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>83.097980000000007</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>83.697760000000002</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>81.555364800000007</v>
+      </c>
+      <c r="H23">
+        <f>MAX(B23:G23)</f>
+        <v>84.499800000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:G24" si="1">B14*B4</f>
+        <v>77.900270000000006</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>77.215319999999991</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>74.915199999999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>72.094679999999997</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>71.558360000000008</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>64.771003199999996</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H28" si="2">MAX(B24:G24)</f>
+        <v>77.900270000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:G25" si="3">B15*B5</f>
+        <v>81.547200000000004</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>79.015749999999997</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>76.272030000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>74.606559999999988</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>70.546559999999985</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>65.322400000000002</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>81.547200000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:G26" si="4">B16*B6</f>
+        <v>84.7029414</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>76.342055400000007</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>73.976505000000003</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>69.721987999999996</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>67.721238400000004</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>53.993889599999996</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>84.7029414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="B27:G27" si="5">G17*G7</f>
+        <v>73.243712000000002</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>73.243712000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="B28:G28" si="6">G18*G8</f>
+        <v>88.918870799999993</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>88.918870799999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>84.499800000000008</v>
+      </c>
+      <c r="C32">
+        <f>B32/$B$32</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="G32">
+        <f>F32/$F$32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>77.900270000000006</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C37" si="7">B33/$B$32</f>
+        <v>0.92189886839968849</v>
+      </c>
+      <c r="F33">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G37" si="8">F33/$F$32</f>
+        <v>1.0043010752688173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>81.547200000000004</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="7"/>
+        <v>0.96505790546249814</v>
+      </c>
+      <c r="F34">
+        <v>0.3236</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>0.99416282642089093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>84.7029414</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="7"/>
+        <v>1.0024040459267358</v>
+      </c>
+      <c r="F35">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>0.99139784946236553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>73.243712000000002</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="7"/>
+        <v>0.86679154270187619</v>
+      </c>
+      <c r="F36">
+        <v>0.3296</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>1.0125960061443933</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>88.918870799999993</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="7"/>
+        <v>1.0522968196374427</v>
+      </c>
+      <c r="F37">
+        <v>0.3291</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>1.0110599078341014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>0.32762999999999998</v>
+      </c>
+      <c r="C44">
+        <v>0.32617000000000002</v>
+      </c>
+      <c r="D44">
+        <v>0.32472000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.32329000000000002</v>
+      </c>
+      <c r="F44">
+        <v>0.32185999999999998</v>
+      </c>
+      <c r="G44">
+        <v>0.32049</v>
+      </c>
+      <c r="H44">
+        <v>0.31917000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>0.32340999999999998</v>
+      </c>
+      <c r="C45">
+        <v>0.32131999999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.31929000000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="F45">
+        <v>0.31533</v>
+      </c>
+      <c r="G45">
+        <v>0.31339</v>
+      </c>
+      <c r="H45">
+        <v>0.31151000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52">
+        <f>B44*$J$52</f>
+        <v>88.460099999999997</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:H52" si="9">C44*$J$52</f>
+        <v>88.065899999999999</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="9"/>
+        <v>87.674400000000006</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="9"/>
+        <v>87.288300000000007</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="9"/>
+        <v>86.902199999999993</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="9"/>
+        <v>86.532299999999992</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="9"/>
+        <v>86.175899999999999</v>
+      </c>
+      <c r="J52">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <f>B45*$J$53</f>
+        <v>83.957235999999995</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:H53" si="10">C45*$J$53</f>
+        <v>83.41467200000001</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="10"/>
+        <v>82.887684000000007</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="10"/>
+        <v>82.371080000000021</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="10"/>
+        <v>81.859668000000013</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="10"/>
+        <v>81.356044000000011</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="10"/>
+        <v>80.867996000000005</v>
+      </c>
+      <c r="J53">
+        <v>259.60000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,15 +158,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,11 +290,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114685440"/>
-        <c:axId val="114686976"/>
+        <c:axId val="138999296"/>
+        <c:axId val="139000832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114685440"/>
+        <c:axId val="138999296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,7 +316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114686976"/>
+        <c:crossAx val="139000832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -313,7 +324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114686976"/>
+        <c:axId val="139000832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114685440"/>
+        <c:crossAx val="138999296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -503,11 +514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116148864"/>
-        <c:axId val="116162944"/>
+        <c:axId val="139950720"/>
+        <c:axId val="139956608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116148864"/>
+        <c:axId val="139950720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116162944"/>
+        <c:crossAx val="139956608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116162944"/>
+        <c:axId val="139956608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -591,7 +602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116148864"/>
+        <c:crossAx val="139950720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -705,11 +716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116178944"/>
-        <c:axId val="116180480"/>
+        <c:axId val="139980800"/>
+        <c:axId val="139982336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116178944"/>
+        <c:axId val="139980800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116180480"/>
+        <c:crossAx val="139982336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -739,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116180480"/>
+        <c:axId val="139982336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116178944"/>
+        <c:crossAx val="139980800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -922,11 +933,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115956352"/>
-        <c:axId val="115958144"/>
+        <c:axId val="140600448"/>
+        <c:axId val="140601984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115956352"/>
+        <c:axId val="140600448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115958144"/>
+        <c:crossAx val="140601984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -956,7 +967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115958144"/>
+        <c:axId val="140601984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115956352"/>
+        <c:crossAx val="140600448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -1521,11 +1532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="114"/>
-        <c:axId val="116016256"/>
-        <c:axId val="116017792"/>
+        <c:axId val="140657408"/>
+        <c:axId val="140658944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116016256"/>
+        <c:axId val="140657408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116017792"/>
+        <c:crossAx val="140658944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1542,7 +1553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116017792"/>
+        <c:axId val="140658944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -1574,7 +1585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116016256"/>
+        <c:crossAx val="140657408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1733,11 +1744,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144379904"/>
-        <c:axId val="144381440"/>
+        <c:axId val="140683904"/>
+        <c:axId val="140702080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144379904"/>
+        <c:axId val="140683904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144381440"/>
+        <c:crossAx val="140702080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1764,7 +1775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144381440"/>
+        <c:axId val="140702080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -1805,7 +1816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144379904"/>
+        <c:crossAx val="140683904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2061,11 +2072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121589760"/>
-        <c:axId val="121592832"/>
+        <c:axId val="140267904"/>
+        <c:axId val="140270208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121589760"/>
+        <c:axId val="140267904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121592832"/>
+        <c:crossAx val="140270208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2118,7 +2129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121592832"/>
+        <c:axId val="140270208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -2165,7 +2176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121589760"/>
+        <c:crossAx val="140267904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2714,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,7 +2993,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22">
+      <c r="G22" s="2">
         <f>G20/B20</f>
         <v>0.99941981189690987</v>
       </c>
@@ -3017,7 +3028,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="B37" s="2">
         <f>B35/B33</f>
         <v>0.99851334951456316</v>
       </c>
@@ -3110,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,7 +3553,7 @@
         <v>24</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="B27:G27" si="5">G17*G7</f>
+        <f t="shared" ref="G27" si="5">G17*G7</f>
         <v>73.243712000000002</v>
       </c>
       <c r="H27">
@@ -3555,7 +3566,7 @@
         <v>23</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="B28:G28" si="6">G18*G8</f>
+        <f t="shared" ref="G28" si="6">G18*G8</f>
         <v>88.918870799999993</v>
       </c>
       <c r="H28">

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
   <si>
     <t>1KB</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>perBest</t>
-  </si>
-  <si>
-    <t>tage (override)</t>
-  </si>
-  <si>
-    <t>tage orig</t>
   </si>
   <si>
     <t>IPC</t>
@@ -116,6 +110,12 @@
   <si>
     <t>GRselect 1KB</t>
   </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t>TAGE</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -165,7 +165,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,11 +290,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138999296"/>
-        <c:axId val="139000832"/>
+        <c:axId val="192939520"/>
+        <c:axId val="192941056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138999296"/>
+        <c:axId val="192939520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,7 +316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139000832"/>
+        <c:crossAx val="192941056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -324,7 +324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139000832"/>
+        <c:axId val="192941056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138999296"/>
+        <c:crossAx val="192939520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -514,11 +514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139950720"/>
-        <c:axId val="139956608"/>
+        <c:axId val="192965248"/>
+        <c:axId val="192975232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139950720"/>
+        <c:axId val="192965248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139956608"/>
+        <c:crossAx val="192975232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -548,7 +548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139956608"/>
+        <c:axId val="192975232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -602,7 +602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139950720"/>
+        <c:crossAx val="192965248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -716,11 +716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139980800"/>
-        <c:axId val="139982336"/>
+        <c:axId val="192991232"/>
+        <c:axId val="192992768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139980800"/>
+        <c:axId val="192991232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139982336"/>
+        <c:crossAx val="192992768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -750,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139982336"/>
+        <c:axId val="192992768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139980800"/>
+        <c:crossAx val="192991232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -933,11 +933,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140600448"/>
-        <c:axId val="140601984"/>
+        <c:axId val="192500864"/>
+        <c:axId val="192502400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140600448"/>
+        <c:axId val="192500864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140601984"/>
+        <c:crossAx val="192502400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -967,7 +967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140601984"/>
+        <c:axId val="192502400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140600448"/>
+        <c:crossAx val="192500864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -1062,6 +1062,623 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>IPC!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>perBest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32269999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>perBest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32369999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>perBest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="zigZag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>perBest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32619999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="lgConfetti">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>perBest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32719999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>perBest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="152757376"/>
+        <c:axId val="152758912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="152757376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152758912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152758912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.32200000000000006"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152757376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>fmax_IPS!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1532,11 +2149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="114"/>
-        <c:axId val="140657408"/>
-        <c:axId val="140658944"/>
+        <c:axId val="192568320"/>
+        <c:axId val="192578304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140657408"/>
+        <c:axId val="192568320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +2162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140658944"/>
+        <c:crossAx val="192578304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1553,7 +2170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140658944"/>
+        <c:axId val="192578304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -1585,7 +2202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140657408"/>
+        <c:crossAx val="192568320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,7 +2252,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1744,11 +2361,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140683904"/>
-        <c:axId val="140702080"/>
+        <c:axId val="192588416"/>
+        <c:axId val="192610688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140683904"/>
+        <c:axId val="192588416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +2384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140702080"/>
+        <c:crossAx val="192610688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1775,7 +2392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140702080"/>
+        <c:axId val="192610688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -1816,7 +2433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140683904"/>
+        <c:crossAx val="192588416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,7 +2468,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2072,11 +2689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140267904"/>
-        <c:axId val="140270208"/>
+        <c:axId val="192631168"/>
+        <c:axId val="192633472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140267904"/>
+        <c:axId val="192631168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140270208"/>
+        <c:crossAx val="192633472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2129,7 +2746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140270208"/>
+        <c:axId val="192633472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -2176,7 +2793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140267904"/>
+        <c:crossAx val="192631168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,6 +2825,620 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$B$61:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>84.499800000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.900270000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.547200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.7029414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$C$61:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>84.179970000000012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.215319999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.015749999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.342055400000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$D$61:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.915199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.272030000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.976505000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$E$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="zigZag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$E$61:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83.097980000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.094679999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.606559999999988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.721987999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$F$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="lgConfetti">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$F$61:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83.697760000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.558360000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.546559999999985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.721238400000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$G$61:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81.555364800000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.771003199999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.322400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.993889599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.243712000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.918870799999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="211794176"/>
+        <c:axId val="215158784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="211794176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215158784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="215158784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Million Instructions Per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="211794176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2338,6 +3569,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2406,15 +3667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2428,6 +3689,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2725,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,26 +4155,26 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>0.3291</v>
+        <v>0.3296</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.3291</v>
+        <v>0.3296</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>0.3296</v>
+        <v>0.3291</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.3296</v>
+        <v>0.3291</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2908,7 +4199,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>0.32250000000000001</v>
@@ -2934,38 +4225,38 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>0.32747999999999999</v>
@@ -3000,12 +4291,12 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>0.3296</v>
@@ -3013,7 +4304,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0.32440000000000002</v>
@@ -3021,7 +4312,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>0.32911000000000001</v>
@@ -3035,7 +4326,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3076,7 +4367,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>0.32719999999999999</v>
@@ -3088,7 +4379,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>0.3291</v>
@@ -3100,7 +4391,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0.3296</v>
@@ -3119,10 +4410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3180,7 +4471,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>238.3</v>
@@ -3226,7 +4517,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>262.48200000000003</v>
@@ -3249,7 +4540,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>222.22</v>
@@ -3257,7 +4548,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>270.18799999999999</v>
@@ -3265,7 +4556,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3359,7 +4650,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>0.32269999999999999</v>
@@ -3382,7 +4673,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>0.3296</v>
@@ -3390,10 +4681,15 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <v>0.3291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3517,7 +4813,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26:G26" si="4">B16*B6</f>
@@ -3550,7 +4846,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="5">G17*G7</f>
@@ -3563,7 +4859,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G28">
         <f t="shared" ref="G28" si="6">G18*G8</f>
@@ -3576,15 +4872,15 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>84.499800000000008</v>
@@ -3603,7 +4899,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>77.900270000000006</v>
@@ -3622,7 +4918,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>81.547200000000004</v>
@@ -3641,7 +4937,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35">
         <v>84.7029414</v>
@@ -3660,7 +4956,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>73.243712000000002</v>
@@ -3679,7 +4975,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>88.918870799999993</v>
@@ -3721,7 +5017,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0.32762999999999998</v>
@@ -3747,7 +5043,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45">
         <v>0.32340999999999998</v>
@@ -3796,7 +5092,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B52">
         <f>B44*$J$52</f>
@@ -3832,7 +5128,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <f>B45*$J$53</f>
@@ -3864,6 +5160,139 @@
       </c>
       <c r="J53">
         <v>259.60000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>84.499800000000008</v>
+      </c>
+      <c r="C61">
+        <v>84.179970000000012</v>
+      </c>
+      <c r="D61">
+        <v>83.231999999999999</v>
+      </c>
+      <c r="E61">
+        <v>83.097980000000007</v>
+      </c>
+      <c r="F61">
+        <v>83.697760000000002</v>
+      </c>
+      <c r="G61">
+        <v>81.555364800000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>77.900270000000006</v>
+      </c>
+      <c r="C62">
+        <v>77.215319999999991</v>
+      </c>
+      <c r="D62">
+        <v>74.915199999999999</v>
+      </c>
+      <c r="E62">
+        <v>72.094679999999997</v>
+      </c>
+      <c r="F62">
+        <v>71.558360000000008</v>
+      </c>
+      <c r="G62">
+        <v>64.771003199999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>81.547200000000004</v>
+      </c>
+      <c r="C63">
+        <v>79.015749999999997</v>
+      </c>
+      <c r="D63">
+        <v>76.272030000000001</v>
+      </c>
+      <c r="E63">
+        <v>74.606559999999988</v>
+      </c>
+      <c r="F63">
+        <v>70.546559999999985</v>
+      </c>
+      <c r="G63">
+        <v>65.322400000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64">
+        <v>84.7029414</v>
+      </c>
+      <c r="C64">
+        <v>76.342055400000007</v>
+      </c>
+      <c r="D64">
+        <v>73.976505000000003</v>
+      </c>
+      <c r="E64">
+        <v>69.721987999999996</v>
+      </c>
+      <c r="F64">
+        <v>67.721238400000004</v>
+      </c>
+      <c r="G64">
+        <v>53.993889599999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65">
+        <v>73.243712000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66">
+        <v>88.918870799999993</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
     <sheet name="fmax_IPS" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MPKI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
     <t>1KB</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Bimodal</t>
-  </si>
-  <si>
-    <t>perBest</t>
   </si>
   <si>
     <t>IPC</t>
@@ -114,16 +111,35 @@
     <t>IPS</t>
   </si>
   <si>
-    <t>TAGE</t>
+    <t>Single-Cycle TAGE-SC</t>
+  </si>
+  <si>
+    <t>MPKI</t>
+  </si>
+  <si>
+    <t>Single-cycle TAGE</t>
+  </si>
+  <si>
+    <t>Single-cycle TAGE-SC</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>single-cycle TAGE</t>
+  </si>
+  <si>
+    <t>single-cycle TAGE-SC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -162,10 +178,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,7 +225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IPC!$A$15</c:f>
+              <c:f>IPC!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -229,7 +247,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$B$14:$G$14</c:f>
+              <c:f>IPC!$B$16:$G$16</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -255,7 +273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$B$15:$G$15</c:f>
+              <c:f>IPC!$B$17:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -272,7 +290,7 @@
                   <c:v>0.32650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32729999999999998</c:v>
+                  <c:v>0.32719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.32719999999999999</c:v>
@@ -290,11 +308,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192939520"/>
-        <c:axId val="192941056"/>
+        <c:axId val="182711808"/>
+        <c:axId val="182713344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192939520"/>
+        <c:axId val="182711808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,7 +334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192941056"/>
+        <c:crossAx val="182713344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -324,7 +342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192941056"/>
+        <c:axId val="182713344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192939520"/>
+        <c:crossAx val="182711808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -390,6 +408,893 @@
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$77:$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GRselect 1KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare 1KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal 1KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron 1KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$B$77:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="51618176"/>
+        <c:axId val="51619712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51618176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51619712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51619712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Area (ALUTs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51618176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12896405861984062"/>
+          <c:y val="5.4961175909611533E-2"/>
+          <c:w val="0.85717692009169322"/>
+          <c:h val="0.75142961277034126"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.6754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.158200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.036799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.368500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.963800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.3308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.407299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.7182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.7309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.189900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.776199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="zigZag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.660500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.980600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.1859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.4094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.1152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="lgConfetti">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.8396000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8455999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.635199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.232200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.149900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.154400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2553999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2526999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="152561920"/>
+        <c:axId val="155795456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="152561920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155795456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155795456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>MPKI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152561920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.54238462379702534"/>
+          <c:y val="4.5606975184439971E-2"/>
+          <c:w val="0.45761547755202375"/>
+          <c:h val="0.11833327893934073"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -419,7 +1324,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IPC!$A$20</c:f>
+              <c:f>IPC!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -441,7 +1346,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$B$19:$I$19</c:f>
+              <c:f>IPC!$B$21:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -473,7 +1378,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$B$20:$I$20</c:f>
+              <c:f>IPC!$B$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -514,11 +1419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192965248"/>
-        <c:axId val="192975232"/>
+        <c:axId val="189233792"/>
+        <c:axId val="189239680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192965248"/>
+        <c:axId val="189233792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +1445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192975232"/>
+        <c:crossAx val="189239680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -548,7 +1453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192975232"/>
+        <c:axId val="189239680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -602,7 +1507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192965248"/>
+        <c:crossAx val="189233792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -651,7 +1556,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IPC!$B$32</c:f>
+              <c:f>IPC!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -673,9 +1578,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$A$33:$A$35</c:f>
+              <c:f>IPC!$A$35:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Single-Cycle TAGE</c:v>
                 </c:pt>
@@ -683,6 +1588,9 @@
                   <c:v>O-TAGE</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Single-Cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -690,10 +1598,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$B$33:$B$35</c:f>
+              <c:f>IPC!$B$35:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.3296</c:v>
                 </c:pt>
@@ -701,7 +1609,10 @@
                   <c:v>0.32440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32911000000000001</c:v>
+                  <c:v>0.33104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32941999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,11 +1627,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192991232"/>
-        <c:axId val="192992768"/>
+        <c:axId val="189263872"/>
+        <c:axId val="189265408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192991232"/>
+        <c:axId val="189263872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +1653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192992768"/>
+        <c:crossAx val="189265408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -750,7 +1661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192992768"/>
+        <c:axId val="189265408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,10 +1707,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192991232"/>
+        <c:crossAx val="189263872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000005E-3"/>
+        <c:majorUnit val="5.000000000000001E-3"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
@@ -850,7 +1761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IPC!$B$43</c:f>
+              <c:f>IPC!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -872,9 +1783,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$A$44:$A$49</c:f>
+              <c:f>IPC!$A$46:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -888,20 +1799,26 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Single-Cycle TAGE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$B$44:$B$49</c:f>
+              <c:f>IPC!$B$46:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.3276</c:v>
                 </c:pt>
@@ -915,10 +1832,16 @@
                   <c:v>0.32719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3291</c:v>
+                  <c:v>0.3296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3296</c:v>
+                  <c:v>0.32440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32941999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,11 +1856,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192500864"/>
-        <c:axId val="192502400"/>
+        <c:axId val="189363328"/>
+        <c:axId val="189364864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192500864"/>
+        <c:axId val="189363328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +1882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192502400"/>
+        <c:crossAx val="189364864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -967,7 +1890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192502400"/>
+        <c:axId val="189364864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192500864"/>
+        <c:crossAx val="189363328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -1084,9 +2007,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:f>IPC!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -1097,12 +2020,18 @@
                   <c:v>Bimodal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>perBest</c:v>
+                  <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -1110,10 +2039,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$B$2:$B$7</c:f>
+              <c:f>IPC!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.32550000000000001</c:v>
                 </c:pt>
@@ -1162,9 +2091,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:f>IPC!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -1175,12 +2104,18 @@
                   <c:v>Bimodal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>perBest</c:v>
+                  <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -1188,10 +2123,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$C$2:$C$7</c:f>
+              <c:f>IPC!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.32590000000000002</c:v>
                 </c:pt>
@@ -1240,9 +2175,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:f>IPC!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -1253,12 +2188,18 @@
                   <c:v>Bimodal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>perBest</c:v>
+                  <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -1266,10 +2207,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$D$2:$D$7</c:f>
+              <c:f>IPC!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.32640000000000002</c:v>
                 </c:pt>
@@ -1318,9 +2259,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:f>IPC!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -1331,12 +2272,18 @@
                   <c:v>Bimodal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>perBest</c:v>
+                  <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -1344,10 +2291,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$E$2:$E$7</c:f>
+              <c:f>IPC!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.32690000000000002</c:v>
                 </c:pt>
@@ -1374,6 +2321,87 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>16KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.32719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32719999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1396,9 +2424,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$A$2:$A$7</c:f>
+              <c:f>IPC!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -1409,12 +2437,18 @@
                   <c:v>Bimodal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>perBest</c:v>
+                  <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -1422,102 +2456,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$F$2:$F$7</c:f>
+              <c:f>IPC!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.32719999999999999</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.3276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32840000000000003</c:v>
+                  <c:v>0.3286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32479999999999998</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.32719999999999999</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>IPC!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32KB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>IPC!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>GRselect</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gshare</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bimodal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>perBest</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TAGE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>O-TAGE-SC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IPC!$G$2:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.3276</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3286</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32719999999999999</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.3296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3291</c:v>
+                  <c:v>0.32668999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32941999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,12 +2496,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="152757376"/>
-        <c:axId val="152758912"/>
+        <c:gapWidth val="58"/>
+        <c:axId val="189403904"/>
+        <c:axId val="189405440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152757376"/>
+        <c:axId val="189403904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +2515,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400">
+              <a:defRPr sz="1200">
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -1558,7 +2523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152758912"/>
+        <c:crossAx val="189405440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +2531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152758912"/>
+        <c:axId val="189405440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000006"/>
@@ -1613,21 +2578,31 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152757376"/>
+        <c:crossAx val="189403904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000005E-3"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24115728843637327"/>
+          <c:y val="5.0212395037336197E-2"/>
+          <c:w val="0.56696015284477508"/>
+          <c:h val="0.12747305110846385"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400">
+            <a:defRPr sz="1800">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
@@ -1701,9 +2676,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:f>fmax_IPS!$A$3:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -1717,9 +2692,15 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -1727,10 +2708,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$B$3:$B$8</c:f>
+              <c:f>fmax_IPS!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>259.60000000000002</c:v>
                 </c:pt>
@@ -1779,9 +2760,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:f>fmax_IPS!$A$3:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -1795,9 +2776,15 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -1805,10 +2792,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$C$3:$C$8</c:f>
+              <c:f>fmax_IPS!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>258.3</c:v>
                 </c:pt>
@@ -1857,9 +2844,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:f>fmax_IPS!$A$3:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -1873,9 +2860,15 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -1883,10 +2876,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$D$3:$D$8</c:f>
+              <c:f>fmax_IPS!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>255</c:v>
                 </c:pt>
@@ -1935,9 +2928,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:f>fmax_IPS!$A$3:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -1951,9 +2944,15 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -1961,10 +2960,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$E$3:$E$8</c:f>
+              <c:f>fmax_IPS!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>254.2</c:v>
                 </c:pt>
@@ -1991,6 +2990,87 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>16KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>fmax_IPS!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GShare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fmax_IPS!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>255.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206.97200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2013,9 +3093,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$3:$A$8</c:f>
+              <c:f>fmax_IPS!$A$3:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>GRselect</c:v>
                 </c:pt>
@@ -2029,9 +3109,15 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>O-TAGE-SC</c:v>
                 </c:pt>
               </c:strCache>
@@ -2039,85 +3125,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$F$3:$F$8</c:f>
+              <c:f>fmax_IPS!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>255.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>217.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>217.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>206.97200000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fmax_IPS!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32KB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>fmax_IPS!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>GRselect</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GShare</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bimodal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Perceptron</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>O-TAGE-SC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>fmax_IPS!$G$3:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>248.94800000000001</c:v>
                 </c:pt>
@@ -2131,10 +3142,16 @@
                   <c:v>165.018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>222.22</c:v>
+                  <c:v>221.874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>270.18799999999999</c:v>
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,12 +3165,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="114"/>
-        <c:axId val="192568320"/>
-        <c:axId val="192578304"/>
+        <c:gapWidth val="50"/>
+        <c:axId val="188951168"/>
+        <c:axId val="188952960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192568320"/>
+        <c:axId val="188951168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +3179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192578304"/>
+        <c:crossAx val="188952960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2170,7 +3187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192578304"/>
+        <c:axId val="188952960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -2202,21 +3219,30 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192568320"/>
+        <c:crossAx val="188951168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21301614151592213"/>
+          <c:y val="0"/>
+          <c:w val="0.55218631162404264"/>
+          <c:h val="0.11701837270341207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400"/>
+            <a:defRPr sz="1600"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -2278,7 +3304,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>fmax_IPS!$B$31</c:f>
+              <c:f>fmax_IPS!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2300,23 +3326,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$32:$A$37</c:f>
+              <c:f>fmax_IPS!$A$38:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>GRselect 1KB</c:v>
+                  <c:v>GRselect</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gshare 1KB</c:v>
+                  <c:v>Gshare</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bimodal 1KB</c:v>
+                  <c:v>Bimodal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Perceptron 1KB</c:v>
+                  <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE-SC</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>O-TAGE-SC</c:v>
@@ -2326,7 +3352,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$B$32:$B$37</c:f>
+              <c:f>fmax_IPS!$B$38:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2343,10 +3369,10 @@
                   <c:v>84.7029414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.243712000000002</c:v>
+                  <c:v>74.041730559999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.918870799999993</c:v>
+                  <c:v>89.179264720000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,11 +3387,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192588416"/>
-        <c:axId val="192610688"/>
+        <c:axId val="188989824"/>
+        <c:axId val="188991360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192588416"/>
+        <c:axId val="188989824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,7 +3410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192610688"/>
+        <c:crossAx val="188991360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2392,7 +3418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192610688"/>
+        <c:axId val="188991360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -2433,7 +3459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192588416"/>
+        <c:crossAx val="188989824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2493,7 +3519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>fmax_IPS!$A$52</c:f>
+              <c:f>fmax_IPS!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2523,7 +3549,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>fmax_IPS!$B$51:$H$51</c:f>
+              <c:f>fmax_IPS!$B$54:$H$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2553,7 +3579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$B$52:$H$52</c:f>
+              <c:f>fmax_IPS!$B$55:$H$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2588,7 +3614,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>fmax_IPS!$A$53</c:f>
+              <c:f>fmax_IPS!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2619,7 +3645,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>fmax_IPS!$B$51:$H$51</c:f>
+              <c:f>fmax_IPS!$B$54:$H$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2649,7 +3675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$B$53:$H$53</c:f>
+              <c:f>fmax_IPS!$B$56:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2689,11 +3715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192631168"/>
-        <c:axId val="192633472"/>
+        <c:axId val="188996992"/>
+        <c:axId val="189151104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192631168"/>
+        <c:axId val="188996992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +3764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192633472"/>
+        <c:crossAx val="189151104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2746,7 +3772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192633472"/>
+        <c:axId val="189151104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -2793,7 +3819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192631168"/>
+        <c:crossAx val="188996992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2859,7 +3885,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>fmax_IPS!$B$60</c:f>
+              <c:f>fmax_IPS!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2881,7 +3907,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2897,7 +3923,7 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE-SC</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>O-TAGE-SC</c:v>
@@ -2907,7 +3933,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$B$61:$B$66</c:f>
+              <c:f>(fmax_IPS!$B$26:$B$29,fmax_IPS!$B$32:$B$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2932,7 +3958,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>fmax_IPS!$C$60</c:f>
+              <c:f>fmax_IPS!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2959,7 +3985,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2975,7 +4001,7 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE-SC</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>O-TAGE-SC</c:v>
@@ -2985,7 +4011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$C$61:$C$66</c:f>
+              <c:f>(fmax_IPS!$C$26:$C$29,fmax_IPS!$C$32:$C$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3010,7 +4036,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>fmax_IPS!$D$60</c:f>
+              <c:f>fmax_IPS!$D$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3037,7 +4063,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3053,7 +4079,7 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE-SC</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>O-TAGE-SC</c:v>
@@ -3063,7 +4089,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$D$61:$D$66</c:f>
+              <c:f>(fmax_IPS!$D$26:$D$29,fmax_IPS!$D$32:$D$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3088,7 +4114,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>fmax_IPS!$E$60</c:f>
+              <c:f>fmax_IPS!$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3115,7 +4141,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3131,7 +4157,7 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE-SC</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>O-TAGE-SC</c:v>
@@ -3141,7 +4167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$E$61:$E$66</c:f>
+              <c:f>(fmax_IPS!$E$26:$E$29,fmax_IPS!$E$32:$E$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3166,11 +4192,86 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>fmax_IPS!$F$60</c:f>
+              <c:f>fmax_IPS!$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>16KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gshare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(fmax_IPS!$F$26:$F$29,fmax_IPS!$F$32:$F$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83.697760000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.558360000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.546559999999985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.721238400000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fmax_IPS!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3193,7 +4294,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>fmax_IPS!$A$61:$A$66</c:f>
+              <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3209,7 +4310,7 @@
                   <c:v>Perceptron</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
+                  <c:v>Single-cycle TAGE-SC</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>O-TAGE-SC</c:v>
@@ -3219,86 +4320,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fmax_IPS!$F$61:$F$66</c:f>
+              <c:f>(fmax_IPS!$G$26:$G$29,fmax_IPS!$G$32:$G$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>83.697760000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.558360000000008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70.546559999999985</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.721238400000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fmax_IPS!$G$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32KB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>fmax_IPS!$A$61:$A$66</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>GRselect</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gshare</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bimodal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Perceptron</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Single-Cycle TAGE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>O-TAGE-SC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>fmax_IPS!$G$61:$G$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
                   <c:v>81.555364800000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3311,10 +4337,10 @@
                   <c:v>53.993889599999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.243712000000002</c:v>
+                  <c:v>74.041730559999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.918870799999993</c:v>
+                  <c:v>88.943399999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3328,12 +4354,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="211794176"/>
-        <c:axId val="215158784"/>
+        <c:gapWidth val="48"/>
+        <c:axId val="189474688"/>
+        <c:axId val="189476224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211794176"/>
+        <c:axId val="189474688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3352,7 +4378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215158784"/>
+        <c:crossAx val="189476224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3360,7 +4386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215158784"/>
+        <c:axId val="189476224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -3397,21 +4423,30 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211794176"/>
+        <c:crossAx val="189474688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24637397727120816"/>
+          <c:y val="4.4717093290168E-2"/>
+          <c:w val="0.58438592940918321"/>
+          <c:h val="0.11363551595524243"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400"/>
+            <a:defRPr sz="1800"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -3453,14 +4488,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3484,13 +4519,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3511,16 +4546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3542,14 +4577,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>361948</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3571,16 +4606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3607,15 +4642,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3637,15 +4672,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3668,13 +4703,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3697,15 +4732,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3724,7 +4759,160 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161923</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355381</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03985</cdr:x>
+      <cdr:y>0.18477</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.03985</cdr:x>
+      <cdr:y>0.52758</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="316414" y="469897"/>
+          <a:ext cx="0" cy="871825"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01252</cdr:x>
+      <cdr:y>0.43928</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.0618</cdr:x>
+      <cdr:y>0.73221</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="99389" y="1117167"/>
+          <a:ext cx="391353" cy="744972"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4014,15 +5202,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4095,7 +5284,7 @@
         <v>0.3286</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="0">MAX(B3:G3)</f>
+        <f t="shared" ref="H3:H9" si="0">MAX(B3:G3)</f>
         <v>0.3286</v>
       </c>
     </row>
@@ -4128,7 +5317,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0.32269999999999999</v>
@@ -4155,7 +5344,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>0.3296</v>
@@ -4167,147 +5356,155 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>0.3291</v>
+        <v>0.32668999999999998</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.3291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+        <v>0.32668999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>0.33104</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.33104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>0.32941999999999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.32941999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
         <v>0.32250000000000001</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>0.32400000000000001</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>0.32540000000000002</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>0.32650000000000001</v>
       </c>
-      <c r="F15">
-        <v>0.32729999999999998</v>
-      </c>
-      <c r="G15">
+      <c r="F17">
         <v>0.32719999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
+      <c r="G17">
+        <v>0.32719999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
         <v>0.32747999999999999</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="1">
         <v>0.32761000000000001</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D22" s="1">
         <v>0.32762000000000002</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E22" s="1">
         <v>0.32750000000000001</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F22" s="1">
         <v>0.32735999999999998</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="1">
         <v>0.32729000000000003</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H22" s="1">
         <v>0.3206</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I22" s="1">
         <v>0.30529000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="2">
-        <f>G20/B20</f>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <f>G22/B22</f>
         <v>0.99941981189690987</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33">
-        <v>0.3296</v>
-      </c>
-    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34">
-        <v>0.32440000000000002</v>
+      <c r="B34" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4315,78 +5512,88 @@
         <v>21</v>
       </c>
       <c r="B35">
-        <v>0.32911000000000001</v>
+        <v>0.3296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>0.32440000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <f>B35/B33</f>
-        <v>0.99851334951456316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44">
-        <v>0.3276</v>
-      </c>
-      <c r="C44">
-        <f>B44/$B$44</f>
-        <v>1</v>
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <f>G8</f>
+        <v>0.33104</v>
+      </c>
+      <c r="C37">
+        <f>B37/B35</f>
+        <v>1.0043689320388349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <f>G9</f>
+        <v>0.32941999999999999</v>
+      </c>
+      <c r="C38">
+        <f>B38/B36</f>
+        <v>1.0154747225647347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <f>B38/B37</f>
+        <v>0.99510633156114059</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>0.3286</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:C49" si="1">B45/$B$44</f>
-        <v>1.003052503052503</v>
+      <c r="B45" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>0.3276</v>
+      </c>
+      <c r="C46">
+        <f>B46/$B$46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>0.3286</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:C53" si="1">B47/$B$46</f>
+        <v>1.003052503052503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>8</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <f t="shared" si="1"/>
         <v>0.99206349206349209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47">
-        <v>0.32719999999999999</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="1"/>
-        <v>0.99877899877899878</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48">
-        <v>0.3291</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="1"/>
-        <v>1.0045787545787546</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4394,11 +5601,63 @@
         <v>22</v>
       </c>
       <c r="B49">
-        <v>0.3296</v>
+        <v>0.32719999999999999</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
+        <v>0.99877899877899878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50">
+        <f>B35</f>
+        <v>0.3296</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
         <v>1.0061050061050061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <f>B36</f>
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.99023199023199027</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52">
+        <f>B37</f>
+        <v>0.33104</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>1.0105006105006105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <f>B38</f>
+        <v>0.32941999999999999</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>1.0055555555555555</v>
       </c>
     </row>
   </sheetData>
@@ -4410,23 +5669,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4446,7 +5705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4469,9 +5728,9 @@
         <v>248.94800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>238.3</v>
@@ -4492,7 +5751,7 @@
         <v>197.11199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4515,9 +5774,9 @@
         <v>200.99199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>262.48200000000003</v>
@@ -4538,778 +5797,1063 @@
         <v>165.018</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>222.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221.874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>270.18799999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>223.66399999999999</v>
+      </c>
+      <c r="H9">
+        <f>G9/B3</f>
+        <v>0.86157164869029268</v>
+      </c>
+      <c r="I9">
+        <f>G9/G10</f>
+        <v>0.82838518518518511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>0.32550000000000001</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.32590000000000002</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.32640000000000002</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.32690000000000002</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.32719999999999999</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>0.3276</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0.32690000000000002</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>0.3276</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>0.32800000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.32829999999999998</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.32840000000000003</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>0.3286</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>0.3236</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>0.32450000000000001</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>0.32469999999999999</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>0.32479999999999998</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.32479999999999998</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>0.32269999999999999</v>
-      </c>
-      <c r="C16">
-        <v>0.32369999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.3251</v>
-      </c>
-      <c r="E16">
-        <v>0.32619999999999999</v>
-      </c>
-      <c r="F16">
-        <v>0.32719999999999999</v>
-      </c>
-      <c r="G16">
-        <v>0.32719999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
+      <c r="B17">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.3251</v>
+      </c>
+      <c r="E17">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.32719999999999999</v>
+      </c>
       <c r="G17">
-        <v>0.3296</v>
+        <v>0.32719999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G18">
-        <v>0.3291</v>
+        <v>0.3296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>0.32668999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>0.33104</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <f>B13*B3</f>
-        <v>84.499800000000008</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:G23" si="0">C13*C3</f>
-        <v>84.179970000000012</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>83.231999999999999</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>83.097980000000007</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>83.697760000000002</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>81.555364800000007</v>
-      </c>
-      <c r="H23">
-        <f>MAX(B23:G23)</f>
-        <v>84.499800000000008</v>
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>0.32941999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ref="B24:G24" si="1">B14*B4</f>
-        <v>77.900270000000006</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>77.215319999999991</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>74.915199999999999</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>72.094679999999997</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>71.558360000000008</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>64.771003199999996</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ref="H24:H28" si="2">MAX(B24:G24)</f>
-        <v>77.900270000000006</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:G25" si="3">B15*B5</f>
-        <v>81.547200000000004</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="3"/>
-        <v>79.015749999999997</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="3"/>
-        <v>76.272030000000001</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="3"/>
-        <v>74.606559999999988</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>70.546559999999985</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>65.322400000000002</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>81.547200000000004</v>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:G26" si="4">B16*B6</f>
-        <v>84.7029414</v>
+        <f>B3*B14</f>
+        <v>84.499800000000008</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
-        <v>76.342055400000007</v>
+        <f>C3*C14</f>
+        <v>84.179970000000012</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
-        <v>73.976505000000003</v>
+        <f>D3*D14</f>
+        <v>83.231999999999999</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
-        <v>69.721987999999996</v>
+        <f>E3*E14</f>
+        <v>83.097980000000007</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
-        <v>67.721238400000004</v>
+        <f>F3*F14</f>
+        <v>83.697760000000002</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
-        <v>53.993889599999996</v>
+        <f>G3*G14</f>
+        <v>81.555364800000007</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>84.7029414</v>
+        <f>MAX(B26:G26)</f>
+        <v>84.499800000000008</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <f>B4*B15</f>
+        <v>77.900270000000006</v>
+      </c>
+      <c r="C27">
+        <f>C4*C15</f>
+        <v>77.215319999999991</v>
+      </c>
+      <c r="D27">
+        <f>D4*D15</f>
+        <v>74.915199999999999</v>
+      </c>
+      <c r="E27">
+        <f>E4*E15</f>
+        <v>72.094679999999997</v>
+      </c>
+      <c r="F27">
+        <f>F4*F15</f>
+        <v>71.558360000000008</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27" si="5">G17*G7</f>
-        <v>73.243712000000002</v>
+        <f>G4*G15</f>
+        <v>64.771003199999996</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
-        <v>73.243712000000002</v>
+        <f t="shared" ref="H27:H33" si="0">MAX(B27:G27)</f>
+        <v>77.900270000000006</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <f>B5*B16</f>
+        <v>81.547200000000004</v>
+      </c>
+      <c r="C28">
+        <f>C5*C16</f>
+        <v>79.015749999999997</v>
+      </c>
+      <c r="D28">
+        <f>D5*D16</f>
+        <v>76.272030000000001</v>
+      </c>
+      <c r="E28">
+        <f>E5*E16</f>
+        <v>74.606559999999988</v>
+      </c>
+      <c r="F28">
+        <f>F5*F16</f>
+        <v>70.546559999999985</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="6">G18*G8</f>
-        <v>88.918870799999993</v>
+        <f>G5*G16</f>
+        <v>65.322400000000002</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>88.918870799999993</v>
+        <f t="shared" si="0"/>
+        <v>81.547200000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <f>B6*B17</f>
+        <v>84.7029414</v>
+      </c>
+      <c r="C29">
+        <f>C6*C17</f>
+        <v>76.342055400000007</v>
+      </c>
+      <c r="D29">
+        <f>D6*D17</f>
+        <v>73.976505000000003</v>
+      </c>
+      <c r="E29">
+        <f>E6*E17</f>
+        <v>69.721987999999996</v>
+      </c>
+      <c r="F29">
+        <f>F6*F17</f>
+        <v>67.721238400000004</v>
+      </c>
+      <c r="G29">
+        <f>G6*G17</f>
+        <v>53.993889599999996</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>84.7029414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <f>G7*G18</f>
+        <v>73.129670399999995</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>73.129670399999995</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <f>G8*G19</f>
+        <v>88.206299999999999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>88.206299999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>84.499800000000008</v>
-      </c>
-      <c r="C32">
-        <f>B32/$B$32</f>
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.32550000000000001</v>
+        <v>34</v>
       </c>
       <c r="G32">
-        <f>F32/$F$32</f>
-        <v>1</v>
+        <f>G9*G20</f>
+        <v>74.041730559999991</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>74.041730559999991</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <f>G10*G21</f>
+        <v>88.943399999999997</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>88.943399999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>84.499800000000008</v>
+      </c>
+      <c r="C38">
+        <f>B38/$B$38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
         <v>77.900270000000006</v>
       </c>
-      <c r="C33">
-        <f t="shared" ref="C33:C37" si="7">B33/$B$32</f>
+      <c r="C39">
+        <f>B39/$B$38</f>
         <v>0.92189886839968849</v>
       </c>
-      <c r="F33">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G37" si="8">F33/$F$32</f>
-        <v>1.0043010752688173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
         <v>81.547200000000004</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="7"/>
+      <c r="C40">
+        <f>B40/$B$38</f>
         <v>0.96505790546249814</v>
       </c>
-      <c r="F34">
-        <v>0.3236</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="8"/>
-        <v>0.99416282642089093</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
         <v>84.7029414</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="7"/>
+      <c r="C41">
+        <f>B41/$B$38</f>
         <v>1.0024040459267358</v>
       </c>
-      <c r="F35">
-        <v>0.32269999999999999</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>0.99139784946236553</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36">
-        <v>73.243712000000002</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="7"/>
-        <v>0.86679154270187619</v>
-      </c>
-      <c r="F36">
-        <v>0.3296</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="8"/>
-        <v>1.0125960061443933</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37">
-        <v>88.918870799999993</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="7"/>
-        <v>1.0522968196374427</v>
-      </c>
-      <c r="F37">
-        <v>0.3291</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="8"/>
-        <v>1.0110599078341014</v>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>74.041730559999991</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C43" si="1">B42/$B$38</f>
+        <v>0.87623557168182631</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
       <c r="B43">
+        <v>89.179264720000006</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>1.0553784117832232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="C50">
         <v>4</v>
       </c>
-      <c r="D43">
+      <c r="D50">
         <v>5</v>
       </c>
-      <c r="E43">
+      <c r="E50">
         <v>6</v>
       </c>
-      <c r="F43">
+      <c r="F50">
         <v>7</v>
       </c>
-      <c r="G43">
+      <c r="G50">
         <v>8</v>
       </c>
-      <c r="H43">
+      <c r="H50">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
         <v>0.32762999999999998</v>
       </c>
-      <c r="C44">
+      <c r="C51">
         <v>0.32617000000000002</v>
       </c>
-      <c r="D44">
+      <c r="D51">
         <v>0.32472000000000001</v>
       </c>
-      <c r="E44">
+      <c r="E51">
         <v>0.32329000000000002</v>
       </c>
-      <c r="F44">
+      <c r="F51">
         <v>0.32185999999999998</v>
       </c>
-      <c r="G44">
+      <c r="G51">
         <v>0.32049</v>
       </c>
-      <c r="H44">
+      <c r="H51">
         <v>0.31917000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45">
-        <v>0.32340999999999998</v>
-      </c>
-      <c r="C45">
-        <v>0.32131999999999999</v>
-      </c>
-      <c r="D45">
-        <v>0.31929000000000002</v>
-      </c>
-      <c r="E45">
-        <v>0.31730000000000003</v>
-      </c>
-      <c r="F45">
-        <v>0.31533</v>
-      </c>
-      <c r="G45">
-        <v>0.31339</v>
-      </c>
-      <c r="H45">
-        <v>0.31151000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-      <c r="F51">
-        <v>7</v>
-      </c>
-      <c r="G51">
-        <v>8</v>
-      </c>
-      <c r="H51">
-        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <f>B44*$J$52</f>
+        <v>0.32340999999999998</v>
+      </c>
+      <c r="C52">
+        <v>0.32131999999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.31929000000000002</v>
+      </c>
+      <c r="E52">
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="F52">
+        <v>0.31533</v>
+      </c>
+      <c r="G52">
+        <v>0.31339</v>
+      </c>
+      <c r="H52">
+        <v>0.31151000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <f>B51*$J$55</f>
         <v>88.460099999999997</v>
       </c>
-      <c r="C52">
-        <f t="shared" ref="C52:H52" si="9">C44*$J$52</f>
+      <c r="C55">
+        <f>C51*$J$55</f>
         <v>88.065899999999999</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="9"/>
+      <c r="D55">
+        <f>D51*$J$55</f>
         <v>87.674400000000006</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="9"/>
+      <c r="E55">
+        <f>E51*$J$55</f>
         <v>87.288300000000007</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="9"/>
+      <c r="F55">
+        <f>F51*$J$55</f>
         <v>86.902199999999993</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="9"/>
+      <c r="G55">
+        <f>G51*$J$55</f>
         <v>86.532299999999992</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="9"/>
+      <c r="H55">
+        <f>H51*$J$55</f>
         <v>86.175899999999999</v>
       </c>
-      <c r="J52">
+      <c r="J55">
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53">
-        <f>B45*$J$53</f>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56">
+        <f>B52*$J$56</f>
         <v>83.957235999999995</v>
       </c>
-      <c r="C53">
-        <f t="shared" ref="C53:H53" si="10">C45*$J$53</f>
+      <c r="C56">
+        <f>C52*$J$56</f>
         <v>83.41467200000001</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="10"/>
+      <c r="D56">
+        <f>D52*$J$56</f>
         <v>82.887684000000007</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="10"/>
+      <c r="E56">
+        <f>E52*$J$56</f>
         <v>82.371080000000021</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="10"/>
+      <c r="F56">
+        <f>F52*$J$56</f>
         <v>81.859668000000013</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="10"/>
+      <c r="G56">
+        <f>G52*$J$56</f>
         <v>81.356044000000011</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="10"/>
+      <c r="H56">
+        <f>H52*$J$56</f>
         <v>80.867996000000005</v>
       </c>
-      <c r="J53">
+      <c r="J56">
         <v>259.60000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61">
-        <v>84.499800000000008</v>
-      </c>
-      <c r="C61">
-        <v>84.179970000000012</v>
-      </c>
-      <c r="D61">
-        <v>83.231999999999999</v>
-      </c>
-      <c r="E61">
-        <v>83.097980000000007</v>
-      </c>
-      <c r="F61">
-        <v>83.697760000000002</v>
-      </c>
-      <c r="G61">
-        <v>81.555364800000007</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62">
-        <v>77.900270000000006</v>
-      </c>
-      <c r="C62">
-        <v>77.215319999999991</v>
-      </c>
-      <c r="D62">
-        <v>74.915199999999999</v>
-      </c>
-      <c r="E62">
-        <v>72.094679999999997</v>
-      </c>
-      <c r="F62">
-        <v>71.558360000000008</v>
-      </c>
-      <c r="G62">
-        <v>64.771003199999996</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63">
-        <v>81.547200000000004</v>
-      </c>
-      <c r="C63">
-        <v>79.015749999999997</v>
-      </c>
-      <c r="D63">
-        <v>76.272030000000001</v>
-      </c>
-      <c r="E63">
-        <v>74.606559999999988</v>
-      </c>
-      <c r="F63">
-        <v>70.546559999999985</v>
-      </c>
-      <c r="G63">
-        <v>65.322400000000002</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64">
-        <v>84.7029414</v>
-      </c>
-      <c r="C64">
-        <v>76.342055400000007</v>
-      </c>
-      <c r="D64">
-        <v>73.976505000000003</v>
-      </c>
-      <c r="E64">
-        <v>69.721987999999996</v>
-      </c>
-      <c r="F64">
-        <v>67.721238400000004</v>
-      </c>
-      <c r="G64">
-        <v>53.993889599999996</v>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="C65">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="D65">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="E65">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="F65">
+        <v>150</v>
       </c>
       <c r="G65">
-        <v>73.243712000000002</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>154.4</v>
+      </c>
+      <c r="C66">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="D66">
+        <v>158</v>
+      </c>
+      <c r="E66">
+        <v>164</v>
+      </c>
+      <c r="F66">
+        <v>168.2</v>
       </c>
       <c r="G66">
-        <v>88.918870799999993</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>141.6</v>
+      </c>
+      <c r="C67">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="D67">
+        <v>142.4</v>
+      </c>
+      <c r="E67">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="F67">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="G67">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>955.2</v>
+      </c>
+      <c r="C68">
+        <v>1135.8</v>
+      </c>
+      <c r="D68">
+        <v>1134.8</v>
+      </c>
+      <c r="E68">
+        <v>994.6</v>
+      </c>
+      <c r="F68">
+        <v>957.6</v>
+      </c>
+      <c r="G68">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69">
+        <v>676.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70">
+        <v>432.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77">
+        <v>148</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:C80" si="2">B77/$B$77</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>154</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0405405405405406</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79">
+        <v>142</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>955</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4527027027027026</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81">
+        <v>433</v>
+      </c>
+      <c r="C81" s="3">
+        <f>B81/$B$77</f>
+        <v>2.9256756756756759</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>12.6754</v>
+      </c>
+      <c r="C3">
+        <v>11.963800000000001</v>
+      </c>
+      <c r="D3">
+        <v>11.425000000000001</v>
+      </c>
+      <c r="E3">
+        <v>10.660500000000001</v>
+      </c>
+      <c r="F3">
+        <v>10.4094</v>
+      </c>
+      <c r="G3">
+        <v>9.8396000000000008</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H9" si="0">G3/$G$10</f>
+        <v>2.3137301008770899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>12.158200000000001</v>
+      </c>
+      <c r="C4">
+        <v>11.3308</v>
+      </c>
+      <c r="D4">
+        <v>10.7309</v>
+      </c>
+      <c r="E4">
+        <v>10.3986</v>
+      </c>
+      <c r="F4">
+        <v>10.1152</v>
+      </c>
+      <c r="G4">
+        <v>9.8455999999999992</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3151409692665834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>19.036799999999999</v>
+      </c>
+      <c r="C5">
+        <v>16.407299999999999</v>
+      </c>
+      <c r="D5">
+        <v>16.189900000000002</v>
+      </c>
+      <c r="E5">
+        <v>15.980600000000001</v>
+      </c>
+      <c r="F5">
+        <v>15.837</v>
+      </c>
+      <c r="G5">
+        <v>15.635199999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6765349072354034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>17.368500000000001</v>
+      </c>
+      <c r="C6">
+        <v>15.7182</v>
+      </c>
+      <c r="D6">
+        <v>13.776199999999999</v>
+      </c>
+      <c r="E6">
+        <v>13.1859</v>
+      </c>
+      <c r="F6">
+        <v>12.6266</v>
+      </c>
+      <c r="G6">
+        <v>12.232200000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8763373856608743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>10.149900000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3866955110870745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>10.154400000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3877536623791946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>4.2553999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0006348907752722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>4.2526999999999999</v>
+      </c>
+      <c r="H10" s="4">
+        <f>G10/$G$10</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
   <si>
     <t>1KB</t>
   </si>
@@ -131,6 +131,18 @@
   <si>
     <t>single-cycle TAGE-SC</t>
   </si>
+  <si>
+    <t>naïve 1KB165.34</t>
+  </si>
+  <si>
+    <t>3HOB189.5</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>dums</t>
+  </si>
 </sst>
 </file>
 
@@ -139,9 +151,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,12 +196,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,11 +327,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182711808"/>
-        <c:axId val="182713344"/>
+        <c:axId val="115148288"/>
+        <c:axId val="115149824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182711808"/>
+        <c:axId val="115148288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -334,7 +353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182713344"/>
+        <c:crossAx val="115149824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -342,7 +361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182713344"/>
+        <c:axId val="115149824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182711808"/>
+        <c:crossAx val="115148288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -503,11 +522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51618176"/>
-        <c:axId val="51619712"/>
+        <c:axId val="119102848"/>
+        <c:axId val="119112832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51618176"/>
+        <c:axId val="119102848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51619712"/>
+        <c:crossAx val="119112832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51619712"/>
+        <c:axId val="119112832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -584,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51618176"/>
+        <c:crossAx val="119102848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1155,11 +1174,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="152561920"/>
-        <c:axId val="155795456"/>
+        <c:axId val="114615424"/>
+        <c:axId val="114616960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152561920"/>
+        <c:axId val="114615424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155795456"/>
+        <c:crossAx val="114616960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1189,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155795456"/>
+        <c:axId val="114616960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152561920"/>
+        <c:crossAx val="114615424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1298,6 +1317,749 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7473569043610366E-2"/>
+          <c:y val="5.675058463787272E-2"/>
+          <c:w val="0.70111336461730167"/>
+          <c:h val="0.80802048169060992"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPKI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.149900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.154400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2553999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2526999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dump</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="54088448"/>
+        <c:axId val="54089984"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dums</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$D$20:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32941999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="54177792"/>
+        <c:axId val="51264512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="54088448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54089984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54089984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>MPKI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.2359426993871988E-2"/>
+              <c:y val="0.3118292579557001"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54088448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51264512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.33200000000000007"/>
+          <c:min val="0.32000000000000006"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54177792"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="54177792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51264512"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64982005931743558"/>
+          <c:y val="7.1468440809745876E-2"/>
+          <c:w val="0.1263048363999773"/>
+          <c:h val="0.11366750476508866"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14471250832627197"/>
+          <c:y val="6.517388451443569E-2"/>
+          <c:w val="0.83315275912530884"/>
+          <c:h val="0.81884623797025369"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPKI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Single-cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Single-cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.149900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.154400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2553999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2526999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="59018240"/>
+        <c:axId val="61142144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="59018240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61142144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61142144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>MPKI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.567788687931643E-2"/>
+              <c:y val="0.36580052493438325"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59018240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1419,11 +2181,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189233792"/>
-        <c:axId val="189239680"/>
+        <c:axId val="115178112"/>
+        <c:axId val="115188096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189233792"/>
+        <c:axId val="115178112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189239680"/>
+        <c:crossAx val="115188096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1453,7 +2215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189239680"/>
+        <c:axId val="115188096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -1507,7 +2269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189233792"/>
+        <c:crossAx val="115178112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -1627,11 +2389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189263872"/>
-        <c:axId val="189265408"/>
+        <c:axId val="115200000"/>
+        <c:axId val="115201536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189263872"/>
+        <c:axId val="115200000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +2415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189265408"/>
+        <c:crossAx val="115201536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +2423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189265408"/>
+        <c:axId val="115201536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +2469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189263872"/>
+        <c:crossAx val="115200000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-3"/>
@@ -1856,11 +2618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189363328"/>
-        <c:axId val="189364864"/>
+        <c:axId val="115565696"/>
+        <c:axId val="115567232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189363328"/>
+        <c:axId val="115565696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +2644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189364864"/>
+        <c:crossAx val="115567232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1890,7 +2652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189364864"/>
+        <c:axId val="115567232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +2698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189363328"/>
+        <c:crossAx val="115565696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -2497,11 +3259,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="189403904"/>
-        <c:axId val="189405440"/>
+        <c:axId val="119042432"/>
+        <c:axId val="119043968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189403904"/>
+        <c:axId val="119042432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +3285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189405440"/>
+        <c:crossAx val="119043968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2531,7 +3293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189405440"/>
+        <c:axId val="119043968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000006"/>
@@ -2578,7 +3340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189403904"/>
+        <c:crossAx val="119042432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -3166,11 +3928,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="188951168"/>
-        <c:axId val="188952960"/>
+        <c:axId val="118762112"/>
+        <c:axId val="118768000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188951168"/>
+        <c:axId val="118762112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3179,7 +3941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188952960"/>
+        <c:crossAx val="118768000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3187,7 +3949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188952960"/>
+        <c:axId val="118768000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -3219,7 +3981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188951168"/>
+        <c:crossAx val="118762112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3387,11 +4149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188989824"/>
-        <c:axId val="188991360"/>
+        <c:axId val="118782592"/>
+        <c:axId val="118796672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188989824"/>
+        <c:axId val="118782592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3410,7 +4172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188991360"/>
+        <c:crossAx val="118796672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3418,7 +4180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188991360"/>
+        <c:axId val="118796672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -3459,7 +4221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188989824"/>
+        <c:crossAx val="118782592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3715,11 +4477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188996992"/>
-        <c:axId val="189151104"/>
+        <c:axId val="118803840"/>
+        <c:axId val="118962048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188996992"/>
+        <c:axId val="118803840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +4526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189151104"/>
+        <c:crossAx val="118962048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3772,7 +4534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189151104"/>
+        <c:axId val="118962048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -3819,7 +4581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188996992"/>
+        <c:crossAx val="118803840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4355,11 +5117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="189474688"/>
-        <c:axId val="189476224"/>
+        <c:axId val="119080832"/>
+        <c:axId val="119082368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189474688"/>
+        <c:axId val="119080832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4378,7 +5140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189476224"/>
+        <c:crossAx val="119082368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4386,7 +5148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189476224"/>
+        <c:axId val="119082368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -4423,7 +5185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189474688"/>
+        <c:crossAx val="119080832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4796,16 +5558,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>355381</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574456</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4819,6 +5581,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>211207</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414131</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75370</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4900,6 +5722,457 @@
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="eaVert" wrap="square" rtlCol="0"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02859</cdr:x>
+      <cdr:y>0.25211</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.02859</cdr:x>
+      <cdr:y>0.55875</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="253479" y="542968"/>
+          <a:ext cx="0" cy="660393"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00374</cdr:x>
+      <cdr:y>0.55098</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06294</cdr:x>
+      <cdr:y>0.81299</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="33130" y="1186630"/>
+          <a:ext cx="524892" cy="564304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88418</cdr:x>
+      <cdr:y>0.38418</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8844</cdr:x>
+      <cdr:y>0.69741</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="7839596" y="827400"/>
+          <a:ext cx="1950" cy="674605"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86058</cdr:x>
+      <cdr:y>0.11362</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91121</cdr:x>
+      <cdr:y>0.37564</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="7630370" y="244708"/>
+          <a:ext cx="448935" cy="564304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06002</cdr:x>
+      <cdr:y>0.26782</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06037</cdr:x>
+      <cdr:y>0.56682</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="378822" y="588066"/>
+          <a:ext cx="2178" cy="656522"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02905</cdr:x>
+      <cdr:y>0.5696</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11221</cdr:x>
+      <cdr:y>0.84201</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="183320" y="1198776"/>
+          <a:ext cx="524892" cy="573323"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1400">
@@ -5204,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S60" sqref="S60"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,8 +6944,1006 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="C3">
+        <v>258.3</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
+      </c>
+      <c r="E3">
+        <v>254.2</v>
+      </c>
+      <c r="F3">
+        <v>255.8</v>
+      </c>
+      <c r="G3">
+        <v>248.94800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>238.3</v>
+      </c>
+      <c r="C4">
+        <v>235.7</v>
+      </c>
+      <c r="D4">
+        <v>228.4</v>
+      </c>
+      <c r="E4">
+        <v>219.6</v>
+      </c>
+      <c r="F4">
+        <v>217.9</v>
+      </c>
+      <c r="G4">
+        <v>197.11199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>252</v>
+      </c>
+      <c r="C5">
+        <v>243.5</v>
+      </c>
+      <c r="D5">
+        <v>234.9</v>
+      </c>
+      <c r="E5">
+        <v>229.7</v>
+      </c>
+      <c r="F5">
+        <v>217.2</v>
+      </c>
+      <c r="G5">
+        <v>200.99199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>262.48200000000003</v>
+      </c>
+      <c r="C6">
+        <v>235.84200000000001</v>
+      </c>
+      <c r="D6">
+        <v>227.55</v>
+      </c>
+      <c r="E6">
+        <v>213.74</v>
+      </c>
+      <c r="F6">
+        <v>206.97200000000001</v>
+      </c>
+      <c r="G6">
+        <v>165.018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>221.874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>223.66399999999999</v>
+      </c>
+      <c r="H9">
+        <f>G9/B3</f>
+        <v>0.86157164869029268</v>
+      </c>
+      <c r="I9">
+        <f>G9/G10</f>
+        <v>0.82838518518518511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="E14">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.3276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.3276</v>
+      </c>
+      <c r="D15">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.32829999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.32840000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.3286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.3236</v>
+      </c>
+      <c r="C16">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="G16">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.3251</v>
+      </c>
+      <c r="E17">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.32719999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>0.3296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>0.32668999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>0.33104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>0.32941999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:G29" si="0">B3*B14</f>
+        <v>84.499800000000008</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>84.179970000000012</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>83.231999999999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>83.097980000000007</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>83.697760000000002</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>81.555364800000007</v>
+      </c>
+      <c r="H26">
+        <f>MAX(B26:G26)</f>
+        <v>84.499800000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>77.900270000000006</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>77.215319999999991</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>74.915199999999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>72.094679999999997</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>71.558360000000008</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>64.771003199999996</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H33" si="1">MAX(B27:G27)</f>
+        <v>77.900270000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>81.547200000000004</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>79.015749999999997</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>76.272030000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>74.606559999999988</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>70.546559999999985</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>65.322400000000002</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>81.547200000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>84.7029414</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>76.342055400000007</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>73.976505000000003</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>69.721987999999996</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>67.721238400000004</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>53.993889599999996</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>84.7029414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <f>G7*G18</f>
+        <v>73.129670399999995</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>73.129670399999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <f>G8*G19</f>
+        <v>88.206299999999999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>88.206299999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <f>G9*G20</f>
+        <v>74.041730559999991</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>74.041730559999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <f>G10*G21</f>
+        <v>88.943399999999997</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>88.943399999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>84.499800000000008</v>
+      </c>
+      <c r="C38">
+        <f>B38/$B$38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>77.900270000000006</v>
+      </c>
+      <c r="C39">
+        <f>B39/$B$38</f>
+        <v>0.92189886839968849</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>81.547200000000004</v>
+      </c>
+      <c r="C40">
+        <f>B40/$B$38</f>
+        <v>0.96505790546249814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>84.7029414</v>
+      </c>
+      <c r="C41">
+        <f>B41/$B$38</f>
+        <v>1.0024040459267358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>74.041730559999991</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C43" si="2">B42/$B$38</f>
+        <v>0.87623557168182631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>89.179264720000006</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>1.0553784117832232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>0.32762999999999998</v>
+      </c>
+      <c r="C51">
+        <v>0.32617000000000002</v>
+      </c>
+      <c r="D51">
+        <v>0.32472000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.32329000000000002</v>
+      </c>
+      <c r="F51">
+        <v>0.32185999999999998</v>
+      </c>
+      <c r="G51">
+        <v>0.32049</v>
+      </c>
+      <c r="H51">
+        <v>0.31917000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>0.32340999999999998</v>
+      </c>
+      <c r="C52">
+        <v>0.32131999999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.31929000000000002</v>
+      </c>
+      <c r="E52">
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="F52">
+        <v>0.31533</v>
+      </c>
+      <c r="G52">
+        <v>0.31339</v>
+      </c>
+      <c r="H52">
+        <v>0.31151000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55:H55" si="3">B51*$J$55</f>
+        <v>88.460099999999997</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>88.065899999999999</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="3"/>
+        <v>87.674400000000006</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>87.288300000000007</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>86.902199999999993</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>86.532299999999992</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>86.175899999999999</v>
+      </c>
+      <c r="J55">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:H56" si="4">B52*$J$56</f>
+        <v>83.957235999999995</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>83.41467200000001</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>82.887684000000007</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>82.371080000000021</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>81.859668000000013</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>81.356044000000011</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>80.867996000000005</v>
+      </c>
+      <c r="J56">
+        <v>259.60000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="C65">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="D65">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="E65">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="F65">
+        <v>150</v>
+      </c>
+      <c r="G65">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>154.4</v>
+      </c>
+      <c r="C66">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="D66">
+        <v>158</v>
+      </c>
+      <c r="E66">
+        <v>164</v>
+      </c>
+      <c r="F66">
+        <v>168.2</v>
+      </c>
+      <c r="G66">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>141.6</v>
+      </c>
+      <c r="C67">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="D67">
+        <v>142.4</v>
+      </c>
+      <c r="E67">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="F67">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="G67">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>955.2</v>
+      </c>
+      <c r="C68">
+        <v>1135.8</v>
+      </c>
+      <c r="D68">
+        <v>1134.8</v>
+      </c>
+      <c r="E68">
+        <v>994.6</v>
+      </c>
+      <c r="F68">
+        <v>957.6</v>
+      </c>
+      <c r="G68">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69">
+        <v>676.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70">
+        <v>432.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77">
+        <v>148</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:C80" si="5">B77/$B$77</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>154</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0405405405405406</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79">
+        <v>142</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>955</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="5"/>
+        <v>6.4527027027027026</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81">
+        <v>433</v>
+      </c>
+      <c r="C81" s="3">
+        <f>B81/$B$77</f>
+        <v>2.9256756756756759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5682,7 +7953,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5710,22 +7981,26 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>259.60000000000002</v>
+        <v>12.6754</v>
       </c>
       <c r="C3">
-        <v>258.3</v>
+        <v>11.963800000000001</v>
       </c>
       <c r="D3">
-        <v>255</v>
+        <v>11.425000000000001</v>
       </c>
       <c r="E3">
-        <v>254.2</v>
+        <v>10.660500000000001</v>
       </c>
       <c r="F3">
-        <v>255.8</v>
+        <v>10.4094</v>
       </c>
       <c r="G3">
-        <v>248.94800000000001</v>
+        <v>9.8396000000000008</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H9" si="0">G3/$G$10</f>
+        <v>2.3137301008770899</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5733,22 +8008,26 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>238.3</v>
+        <v>12.158200000000001</v>
       </c>
       <c r="C4">
-        <v>235.7</v>
+        <v>11.3308</v>
       </c>
       <c r="D4">
-        <v>228.4</v>
+        <v>10.7309</v>
       </c>
       <c r="E4">
-        <v>219.6</v>
+        <v>10.3986</v>
       </c>
       <c r="F4">
-        <v>217.9</v>
+        <v>10.1152</v>
       </c>
       <c r="G4">
-        <v>197.11199999999999</v>
+        <v>9.8455999999999992</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3151409692665834</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5756,22 +8035,26 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>252</v>
+        <v>19.036799999999999</v>
       </c>
       <c r="C5">
-        <v>243.5</v>
+        <v>16.407299999999999</v>
       </c>
       <c r="D5">
-        <v>234.9</v>
+        <v>16.189900000000002</v>
       </c>
       <c r="E5">
-        <v>229.7</v>
+        <v>15.980600000000001</v>
       </c>
       <c r="F5">
-        <v>217.2</v>
+        <v>15.837</v>
       </c>
       <c r="G5">
-        <v>200.99199999999999</v>
+        <v>15.635199999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6765349072354034</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5779,22 +8062,30 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>262.48200000000003</v>
+        <v>17.368500000000001</v>
       </c>
       <c r="C6">
-        <v>235.84200000000001</v>
+        <v>15.7182</v>
       </c>
       <c r="D6">
-        <v>227.55</v>
+        <v>13.776199999999999</v>
       </c>
       <c r="E6">
-        <v>213.74</v>
+        <v>13.1859</v>
       </c>
       <c r="F6">
-        <v>206.97200000000001</v>
+        <v>12.6266</v>
       </c>
       <c r="G6">
-        <v>165.018</v>
+        <v>12.232200000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8763373856608743</v>
+      </c>
+      <c r="I6" s="4">
+        <f>G3/G6</f>
+        <v>0.80440149768643421</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5802,7 +8093,11 @@
         <v>33</v>
       </c>
       <c r="G7">
-        <v>221.874</v>
+        <v>10.149900000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3866955110870745</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5810,7 +8105,11 @@
         <v>19</v>
       </c>
       <c r="G8">
-        <v>270</v>
+        <v>10.154400000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3877536623791946</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5818,15 +8117,11 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>223.66399999999999</v>
-      </c>
-      <c r="H9">
-        <f>G9/B3</f>
-        <v>0.86157164869029268</v>
-      </c>
-      <c r="I9">
-        <f>G9/G10</f>
-        <v>0.82838518518518511</v>
+        <v>4.2553999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0006348907752722</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5834,1023 +8129,180 @@
         <v>20</v>
       </c>
       <c r="G10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>0.32550000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.32590000000000002</v>
-      </c>
-      <c r="D14">
-        <v>0.32640000000000002</v>
-      </c>
-      <c r="E14">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="F14">
-        <v>0.32719999999999999</v>
-      </c>
-      <c r="G14">
-        <v>0.3276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="C15">
-        <v>0.3276</v>
-      </c>
-      <c r="D15">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="E15">
-        <v>0.32829999999999998</v>
-      </c>
-      <c r="F15">
-        <v>0.32840000000000003</v>
-      </c>
-      <c r="G15">
-        <v>0.3286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>0.3236</v>
-      </c>
-      <c r="C16">
-        <v>0.32450000000000001</v>
-      </c>
-      <c r="D16">
-        <v>0.32469999999999999</v>
-      </c>
-      <c r="E16">
-        <v>0.32479999999999998</v>
-      </c>
-      <c r="F16">
-        <v>0.32479999999999998</v>
-      </c>
-      <c r="G16">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.32269999999999999</v>
-      </c>
-      <c r="C17">
-        <v>0.32369999999999999</v>
-      </c>
-      <c r="D17">
-        <v>0.3251</v>
-      </c>
-      <c r="E17">
-        <v>0.32619999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.32719999999999999</v>
-      </c>
-      <c r="G17">
-        <v>0.32719999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18">
-        <v>0.3296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19">
-        <v>0.32668999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20">
-        <v>0.33104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21">
-        <v>0.32941999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <f>B3*B14</f>
-        <v>84.499800000000008</v>
-      </c>
-      <c r="C26">
-        <f>C3*C14</f>
-        <v>84.179970000000012</v>
-      </c>
-      <c r="D26">
-        <f>D3*D14</f>
-        <v>83.231999999999999</v>
-      </c>
-      <c r="E26">
-        <f>E3*E14</f>
-        <v>83.097980000000007</v>
-      </c>
-      <c r="F26">
-        <f>F3*F14</f>
-        <v>83.697760000000002</v>
-      </c>
-      <c r="G26">
-        <f>G3*G14</f>
-        <v>81.555364800000007</v>
-      </c>
-      <c r="H26">
-        <f>MAX(B26:G26)</f>
-        <v>84.499800000000008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <f>B4*B15</f>
-        <v>77.900270000000006</v>
-      </c>
-      <c r="C27">
-        <f>C4*C15</f>
-        <v>77.215319999999991</v>
-      </c>
-      <c r="D27">
-        <f>D4*D15</f>
-        <v>74.915199999999999</v>
-      </c>
-      <c r="E27">
-        <f>E4*E15</f>
-        <v>72.094679999999997</v>
-      </c>
-      <c r="F27">
-        <f>F4*F15</f>
-        <v>71.558360000000008</v>
-      </c>
-      <c r="G27">
-        <f>G4*G15</f>
-        <v>64.771003199999996</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H33" si="0">MAX(B27:G27)</f>
-        <v>77.900270000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <f>B5*B16</f>
-        <v>81.547200000000004</v>
-      </c>
-      <c r="C28">
-        <f>C5*C16</f>
-        <v>79.015749999999997</v>
-      </c>
-      <c r="D28">
-        <f>D5*D16</f>
-        <v>76.272030000000001</v>
-      </c>
-      <c r="E28">
-        <f>E5*E16</f>
-        <v>74.606559999999988</v>
-      </c>
-      <c r="F28">
-        <f>F5*F16</f>
-        <v>70.546559999999985</v>
-      </c>
-      <c r="G28">
-        <f>G5*G16</f>
-        <v>65.322400000000002</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>81.547200000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29">
-        <f>B6*B17</f>
-        <v>84.7029414</v>
-      </c>
-      <c r="C29">
-        <f>C6*C17</f>
-        <v>76.342055400000007</v>
-      </c>
-      <c r="D29">
-        <f>D6*D17</f>
-        <v>73.976505000000003</v>
-      </c>
-      <c r="E29">
-        <f>E6*E17</f>
-        <v>69.721987999999996</v>
-      </c>
-      <c r="F29">
-        <f>F6*F17</f>
-        <v>67.721238400000004</v>
-      </c>
-      <c r="G29">
-        <f>G6*G17</f>
-        <v>53.993889599999996</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>84.7029414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30">
-        <f>G7*G18</f>
-        <v>73.129670399999995</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>73.129670399999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31">
-        <f>G8*G19</f>
-        <v>88.206299999999999</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>88.206299999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32">
-        <f>G9*G20</f>
-        <v>74.041730559999991</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>74.041730559999991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33">
-        <f>G10*G21</f>
-        <v>88.943399999999997</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>88.943399999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>84.499800000000008</v>
-      </c>
-      <c r="C38">
-        <f>B38/$B$38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>77.900270000000006</v>
-      </c>
-      <c r="C39">
-        <f>B39/$B$38</f>
-        <v>0.92189886839968849</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>81.547200000000004</v>
-      </c>
-      <c r="C40">
-        <f>B40/$B$38</f>
-        <v>0.96505790546249814</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41">
-        <v>84.7029414</v>
-      </c>
-      <c r="C41">
-        <f>B41/$B$38</f>
-        <v>1.0024040459267358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42">
-        <v>74.041730559999991</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:C43" si="1">B42/$B$38</f>
-        <v>0.87623557168182631</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43">
-        <v>89.179264720000006</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="1"/>
-        <v>1.0553784117832232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <v>7</v>
-      </c>
-      <c r="G50">
-        <v>8</v>
-      </c>
-      <c r="H50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51">
-        <v>0.32762999999999998</v>
-      </c>
-      <c r="C51">
-        <v>0.32617000000000002</v>
-      </c>
-      <c r="D51">
-        <v>0.32472000000000001</v>
-      </c>
-      <c r="E51">
-        <v>0.32329000000000002</v>
-      </c>
-      <c r="F51">
-        <v>0.32185999999999998</v>
-      </c>
-      <c r="G51">
-        <v>0.32049</v>
-      </c>
-      <c r="H51">
-        <v>0.31917000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52">
-        <v>0.32340999999999998</v>
-      </c>
-      <c r="C52">
-        <v>0.32131999999999999</v>
-      </c>
-      <c r="D52">
-        <v>0.31929000000000002</v>
-      </c>
-      <c r="E52">
-        <v>0.31730000000000003</v>
-      </c>
-      <c r="F52">
-        <v>0.31533</v>
-      </c>
-      <c r="G52">
-        <v>0.31339</v>
-      </c>
-      <c r="H52">
-        <v>0.31151000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="F54">
-        <v>7</v>
-      </c>
-      <c r="G54">
-        <v>8</v>
-      </c>
-      <c r="H54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55">
-        <f>B51*$J$55</f>
-        <v>88.460099999999997</v>
-      </c>
-      <c r="C55">
-        <f>C51*$J$55</f>
-        <v>88.065899999999999</v>
-      </c>
-      <c r="D55">
-        <f>D51*$J$55</f>
-        <v>87.674400000000006</v>
-      </c>
-      <c r="E55">
-        <f>E51*$J$55</f>
-        <v>87.288300000000007</v>
-      </c>
-      <c r="F55">
-        <f>F51*$J$55</f>
-        <v>86.902199999999993</v>
-      </c>
-      <c r="G55">
-        <f>G51*$J$55</f>
-        <v>86.532299999999992</v>
-      </c>
-      <c r="H55">
-        <f>H51*$J$55</f>
-        <v>86.175899999999999</v>
-      </c>
-      <c r="J55">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56">
-        <f>B52*$J$56</f>
-        <v>83.957235999999995</v>
-      </c>
-      <c r="C56">
-        <f>C52*$J$56</f>
-        <v>83.41467200000001</v>
-      </c>
-      <c r="D56">
-        <f>D52*$J$56</f>
-        <v>82.887684000000007</v>
-      </c>
-      <c r="E56">
-        <f>E52*$J$56</f>
-        <v>82.371080000000021</v>
-      </c>
-      <c r="F56">
-        <f>F52*$J$56</f>
-        <v>81.859668000000013</v>
-      </c>
-      <c r="G56">
-        <f>G52*$J$56</f>
-        <v>81.356044000000011</v>
-      </c>
-      <c r="H56">
-        <f>H52*$J$56</f>
-        <v>80.867996000000005</v>
-      </c>
-      <c r="J56">
-        <v>259.60000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <v>147.80000000000001</v>
-      </c>
-      <c r="C65">
-        <v>149.19999999999999</v>
-      </c>
-      <c r="D65">
-        <v>147.80000000000001</v>
-      </c>
-      <c r="E65">
-        <v>150.80000000000001</v>
-      </c>
-      <c r="F65">
-        <v>150</v>
-      </c>
-      <c r="G65">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66">
-        <v>154.4</v>
-      </c>
-      <c r="C66">
-        <v>158.19999999999999</v>
-      </c>
-      <c r="D66">
-        <v>158</v>
-      </c>
-      <c r="E66">
-        <v>164</v>
-      </c>
-      <c r="F66">
-        <v>168.2</v>
-      </c>
-      <c r="G66">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67">
-        <v>141.6</v>
-      </c>
-      <c r="C67">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="D67">
-        <v>142.4</v>
-      </c>
-      <c r="E67">
-        <v>149.19999999999999</v>
-      </c>
-      <c r="F67">
-        <v>155.19999999999999</v>
-      </c>
-      <c r="G67">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68">
-        <v>955.2</v>
-      </c>
-      <c r="C68">
-        <v>1135.8</v>
-      </c>
-      <c r="D68">
-        <v>1134.8</v>
-      </c>
-      <c r="E68">
-        <v>994.6</v>
-      </c>
-      <c r="F68">
-        <v>957.6</v>
-      </c>
-      <c r="G68">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69">
-        <v>676.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70">
-        <v>432.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77">
-        <v>148</v>
-      </c>
-      <c r="C77">
-        <f t="shared" ref="C77:C80" si="2">B77/$B$77</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78">
-        <v>154</v>
-      </c>
-      <c r="C78" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0405405405405406</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79">
-        <v>142</v>
-      </c>
-      <c r="C79" s="3">
-        <f t="shared" si="2"/>
-        <v>0.95945945945945943</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80">
-        <v>955</v>
-      </c>
-      <c r="C80" s="3">
-        <f t="shared" si="2"/>
-        <v>6.4527027027027026</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81">
-        <v>433</v>
-      </c>
-      <c r="C81" s="3">
-        <f>B81/$B$77</f>
-        <v>2.9256756756756759</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>12.6754</v>
-      </c>
-      <c r="C3">
-        <v>11.963800000000001</v>
-      </c>
-      <c r="D3">
-        <v>11.425000000000001</v>
-      </c>
-      <c r="E3">
-        <v>10.660500000000001</v>
-      </c>
-      <c r="F3">
-        <v>10.4094</v>
-      </c>
-      <c r="G3">
-        <v>9.8396000000000008</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H9" si="0">G3/$G$10</f>
-        <v>2.3137301008770899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>12.158200000000001</v>
-      </c>
-      <c r="C4">
-        <v>11.3308</v>
-      </c>
-      <c r="D4">
-        <v>10.7309</v>
-      </c>
-      <c r="E4">
-        <v>10.3986</v>
-      </c>
-      <c r="F4">
-        <v>10.1152</v>
-      </c>
-      <c r="G4">
-        <v>9.8455999999999992</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3151409692665834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>19.036799999999999</v>
-      </c>
-      <c r="C5">
-        <v>16.407299999999999</v>
-      </c>
-      <c r="D5">
-        <v>16.189900000000002</v>
-      </c>
-      <c r="E5">
-        <v>15.980600000000001</v>
-      </c>
-      <c r="F5">
-        <v>15.837</v>
-      </c>
-      <c r="G5">
-        <v>15.635199999999999</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>3.6765349072354034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>17.368500000000001</v>
-      </c>
-      <c r="C6">
-        <v>15.7182</v>
-      </c>
-      <c r="D6">
-        <v>13.776199999999999</v>
-      </c>
-      <c r="E6">
-        <v>13.1859</v>
-      </c>
-      <c r="F6">
-        <v>12.6266</v>
-      </c>
-      <c r="G6">
-        <v>12.232200000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8763373856608743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>10.149900000000001</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3866955110870745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>10.154400000000001</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3877536623791946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9">
-        <v>4.2553999999999998</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0006348907752722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
         <v>4.2526999999999999</v>
       </c>
       <c r="H10" s="4">
         <f>G10/$G$10</f>
         <v>1</v>
       </c>
+      <c r="I10">
+        <f>G3/G10</f>
+        <v>2.3137301008770899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>10.149900000000001</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.3296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>10.154400000000001</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.32440000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>4.2553999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.33104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>4.2526999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.32941999999999999</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="42">
   <si>
     <t>1KB</t>
   </si>
@@ -148,12 +148,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,12 +166,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,13 +189,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,11 +318,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115148288"/>
-        <c:axId val="115149824"/>
+        <c:axId val="115492352"/>
+        <c:axId val="115493888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115148288"/>
+        <c:axId val="115492352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115149824"/>
+        <c:crossAx val="115493888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -361,7 +352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115149824"/>
+        <c:axId val="115493888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,7 +378,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -407,7 +397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115148288"/>
+        <c:crossAx val="115492352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -522,11 +512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119102848"/>
-        <c:axId val="119112832"/>
+        <c:axId val="117427200"/>
+        <c:axId val="117433088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119102848"/>
+        <c:axId val="117427200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119112832"/>
+        <c:crossAx val="117433088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -556,7 +546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119112832"/>
+        <c:axId val="117433088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -583,7 +573,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -603,7 +592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119102848"/>
+        <c:crossAx val="117427200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1174,11 +1163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="114615424"/>
-        <c:axId val="114616960"/>
+        <c:axId val="118063872"/>
+        <c:axId val="118065408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114615424"/>
+        <c:axId val="118063872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114616960"/>
+        <c:crossAx val="118065408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1208,7 +1197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114616960"/>
+        <c:axId val="118065408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114615424"/>
+        <c:crossAx val="118063872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,8 +1470,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="54088448"/>
-        <c:axId val="54089984"/>
+        <c:axId val="116931200"/>
+        <c:axId val="116932992"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1626,11 +1615,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="54177792"/>
-        <c:axId val="51264512"/>
+        <c:axId val="116949376"/>
+        <c:axId val="116934912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54088448"/>
+        <c:axId val="116931200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54089984"/>
+        <c:crossAx val="116932992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54089984"/>
+        <c:axId val="116932992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,12 +1702,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54088448"/>
+        <c:crossAx val="116931200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51264512"/>
+        <c:axId val="116934912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000007"/>
@@ -1765,13 +1754,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54177792"/>
+        <c:crossAx val="116949376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="54177792"/>
+        <c:axId val="116949376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1769,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51264512"/>
+        <c:crossAx val="116934912"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1864,7 +1854,7 @@
           <c:x val="0.14471250832627197"/>
           <c:y val="6.517388451443569E-2"/>
           <c:w val="0.83315275912530884"/>
-          <c:h val="0.81884623797025369"/>
+          <c:h val="0.79470866084864222"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1947,11 +1937,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="59018240"/>
-        <c:axId val="61142144"/>
+        <c:axId val="116971776"/>
+        <c:axId val="118095872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59018240"/>
+        <c:axId val="116971776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +1963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61142144"/>
+        <c:crossAx val="118095872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1981,7 +1971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61142144"/>
+        <c:axId val="118095872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,7 +2027,493 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59018240"/>
+        <c:crossAx val="116971776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17932822830135925"/>
+          <c:y val="7.1101277253560469E-2"/>
+          <c:w val="0.79547131350849187"/>
+          <c:h val="0.70357593356736348"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPKI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPKI!$B$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$B$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.62656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.428699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.247909999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.650180000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.770709999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.75118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.37932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.291469999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="118137216"/>
+        <c:axId val="118139136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="118137216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>HOB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118139136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="118139136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>MPKI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118137216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17467082993936103"/>
+          <c:y val="7.9221924670583685E-2"/>
+          <c:w val="0.8000418137387999"/>
+          <c:h val="0.73699881423451508"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPKI!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPKI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPKI!$B$36:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPKI!$B$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17.368480000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.71823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.77618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.18591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.62656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.232239999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="118155904"/>
+        <c:axId val="118493568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="118155904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118493568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="118493568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>MPKI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118155904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2181,11 +2657,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115178112"/>
-        <c:axId val="115188096"/>
+        <c:axId val="115505792"/>
+        <c:axId val="115515776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115178112"/>
+        <c:axId val="115505792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115188096"/>
+        <c:crossAx val="115515776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2215,7 +2691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115188096"/>
+        <c:axId val="115515776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -2269,7 +2745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115178112"/>
+        <c:crossAx val="115505792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -2389,11 +2865,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115200000"/>
-        <c:axId val="115201536"/>
+        <c:axId val="115527680"/>
+        <c:axId val="115529216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115200000"/>
+        <c:axId val="115527680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115201536"/>
+        <c:crossAx val="115529216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2423,7 +2899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115201536"/>
+        <c:axId val="115529216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2925,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2469,7 +2944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115200000"/>
+        <c:crossAx val="115527680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-3"/>
@@ -2618,11 +3093,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115565696"/>
-        <c:axId val="115567232"/>
+        <c:axId val="115045504"/>
+        <c:axId val="115047040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115565696"/>
+        <c:axId val="115045504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,7 +3119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115567232"/>
+        <c:crossAx val="115047040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2652,7 +3127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115567232"/>
+        <c:axId val="115047040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +3173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115565696"/>
+        <c:crossAx val="115045504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -2737,7 +3212,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1557331996418595"/>
+          <c:y val="6.3075030750307501E-2"/>
+          <c:w val="0.82864734878537238"/>
+          <c:h val="0.73540711470106823"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3259,11 +3744,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="119042432"/>
-        <c:axId val="119043968"/>
+        <c:axId val="115110272"/>
+        <c:axId val="115111808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119042432"/>
+        <c:axId val="115110272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,7 +3770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119043968"/>
+        <c:crossAx val="115111808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3293,7 +3778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119043968"/>
+        <c:axId val="115111808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000006"/>
@@ -3340,7 +3825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119042432"/>
+        <c:crossAx val="115110272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000005E-3"/>
@@ -3387,6 +3872,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3406,7 +3892,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14150416162047774"/>
+          <c:y val="5.7802663555944399E-2"/>
+          <c:w val="0.84138187703771905"/>
+          <c:h val="0.73993311947117724"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3928,11 +4424,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="118762112"/>
-        <c:axId val="118768000"/>
+        <c:axId val="117262208"/>
+        <c:axId val="117263744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118762112"/>
+        <c:axId val="117262208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3941,7 +4437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118768000"/>
+        <c:crossAx val="117263744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3949,7 +4445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118768000"/>
+        <c:axId val="117263744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -3974,14 +4470,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118762112"/>
+        <c:crossAx val="117262208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3992,7 +4487,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21301614151592213"/>
+          <c:x val="0.26746965487620494"/>
           <c:y val="0"/>
           <c:w val="0.55218631162404264"/>
           <c:h val="0.11701837270341207"/>
@@ -4037,6 +4532,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -4056,7 +4552,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17541470926853467"/>
+          <c:y val="4.1673488244832232E-2"/>
+          <c:w val="0.80389887794350112"/>
+          <c:h val="0.81250182220238665"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -4149,11 +4655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118782592"/>
-        <c:axId val="118796672"/>
+        <c:axId val="117301632"/>
+        <c:axId val="117303168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118782592"/>
+        <c:axId val="117301632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118796672"/>
+        <c:crossAx val="117303168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4180,7 +4686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118796672"/>
+        <c:axId val="117303168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -4204,7 +4710,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4221,7 +4726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118782592"/>
+        <c:crossAx val="117301632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4253,6 +4758,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -4477,11 +4983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118803840"/>
-        <c:axId val="118962048"/>
+        <c:axId val="117332224"/>
+        <c:axId val="117347072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118803840"/>
+        <c:axId val="117332224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4506,7 +5012,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4526,7 +5031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118962048"/>
+        <c:crossAx val="117347072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4534,7 +5039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118962048"/>
+        <c:axId val="117347072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -4561,7 +5066,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4581,14 +5085,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118803840"/>
+        <c:crossAx val="117332224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4637,7 +5140,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17354812731553082"/>
+          <c:y val="5.1337891974029562E-2"/>
+          <c:w val="0.81035235020759966"/>
+          <c:h val="0.71869802458903165"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -5117,11 +5630,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="119080832"/>
-        <c:axId val="119082368"/>
+        <c:axId val="117396224"/>
+        <c:axId val="117397760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119080832"/>
+        <c:axId val="117396224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5140,7 +5653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119082368"/>
+        <c:crossAx val="117397760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5148,7 +5661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119082368"/>
+        <c:axId val="117397760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -5178,14 +5691,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119080832"/>
+        <c:crossAx val="117396224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5241,6 +5753,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -5399,7 +5912,615 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06002</cdr:x>
+      <cdr:y>0.26782</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06037</cdr:x>
+      <cdr:y>0.56682</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="378822" y="588066"/>
+          <a:ext cx="2178" cy="656522"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02905</cdr:x>
+      <cdr:y>0.5696</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11221</cdr:x>
+      <cdr:y>0.84201</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="183320" y="1198776"/>
+          <a:ext cx="524892" cy="573323"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06829</cdr:x>
+      <cdr:y>0.18295</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06869</cdr:x>
+      <cdr:y>0.48394</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="378587" y="352881"/>
+          <a:ext cx="2197" cy="580541"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03494</cdr:x>
+      <cdr:y>0.49383</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.12912</cdr:x>
+      <cdr:y>0.83009</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="193674" y="952501"/>
+          <a:ext cx="522097" cy="648583"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06508</cdr:x>
+      <cdr:y>0.17428</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06548</cdr:x>
+      <cdr:y>0.48367</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="359538" y="327025"/>
+          <a:ext cx="2197" cy="580541"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03161</cdr:x>
+      <cdr:y>0.49384</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.12611</cdr:x>
+      <cdr:y>0.83948</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="174625" y="926645"/>
+          <a:ext cx="522097" cy="648583"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05132</cdr:x>
+      <cdr:y>0.3635</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05153</cdr:x>
+      <cdr:y>0.62485</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="458980" y="938301"/>
+          <a:ext cx="1941" cy="674598"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02804</cdr:x>
+      <cdr:y>0.13776</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07797</cdr:x>
+      <cdr:y>0.35638</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="250825" y="355600"/>
+          <a:ext cx="446564" cy="564308"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5554,7 +6675,463 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05273</cdr:x>
+      <cdr:y>0.27596</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05296</cdr:x>
+      <cdr:y>0.53827</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="430405" y="709701"/>
+          <a:ext cx="1941" cy="674598"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02723</cdr:x>
+      <cdr:y>0.04938</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08193</cdr:x>
+      <cdr:y>0.26881</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="222250" y="127000"/>
+          <a:ext cx="446564" cy="564308"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06373</cdr:x>
+      <cdr:y>0.4099</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06402</cdr:x>
+      <cdr:y>0.59902</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="430405" y="1462176"/>
+          <a:ext cx="1941" cy="674598"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03291</cdr:x>
+      <cdr:y>0.24655</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09904</cdr:x>
+      <cdr:y>0.40475</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="222250" y="879475"/>
+          <a:ext cx="446564" cy="564308"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0496</cdr:x>
+      <cdr:y>0.39641</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.04983</cdr:x>
+      <cdr:y>0.62939</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="430405" y="1147851"/>
+          <a:ext cx="1941" cy="674598"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02561</cdr:x>
+      <cdr:y>0.19518</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07708</cdr:x>
+      <cdr:y>0.39006</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="222250" y="565150"/>
+          <a:ext cx="446564" cy="564308"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5588,16 +7165,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>211207</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>182011</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173107</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>496957</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>458857</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:rowOff>68746</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5618,16 +7195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589308</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>414131</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>75370</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5646,10 +7223,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5737,7 +7374,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5949,158 +7586,6 @@
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
           <a:off x="7630370" y="244708"/>
           <a:ext cx="448935" cy="564304"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>better</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.06002</cdr:x>
-      <cdr:y>0.26782</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.06037</cdr:x>
-      <cdr:y>0.56682</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="378822" y="588066"/>
-          <a:ext cx="2178" cy="656522"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.02905</cdr:x>
-      <cdr:y>0.5696</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.11221</cdr:x>
-      <cdr:y>0.84201</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
-          <a:off x="183320" y="1198776"/>
-          <a:ext cx="524892" cy="573323"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6477,8 +7962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B38"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6944,8 +8429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7940,10 +9425,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7998,7 +9483,7 @@
       <c r="G3">
         <v>9.8396000000000008</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <f t="shared" ref="H3:H9" si="0">G3/$G$10</f>
         <v>2.3137301008770899</v>
       </c>
@@ -8025,7 +9510,7 @@
       <c r="G4">
         <v>9.8455999999999992</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>2.3151409692665834</v>
       </c>
@@ -8052,7 +9537,7 @@
       <c r="G5">
         <v>15.635199999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>3.6765349072354034</v>
       </c>
@@ -8079,11 +9564,11 @@
       <c r="G6">
         <v>12.232200000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>2.8763373856608743</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <f>G3/G6</f>
         <v>0.80440149768643421</v>
       </c>
@@ -8095,7 +9580,7 @@
       <c r="G7">
         <v>10.149900000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>2.3866955110870745</v>
       </c>
@@ -8107,7 +9592,7 @@
       <c r="G8">
         <v>10.154400000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>2.3877536623791946</v>
       </c>
@@ -8119,7 +9604,7 @@
       <c r="G9">
         <v>4.2553999999999998</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>1.0006348907752722</v>
       </c>
@@ -8131,7 +9616,7 @@
       <c r="G10">
         <v>4.2526999999999999</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <f>G10/$G$10</f>
         <v>1</v>
       </c>
@@ -8140,7 +9625,7 @@
         <v>2.3137301008770899</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -8154,7 +9639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -8171,7 +9656,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -8188,7 +9673,7 @@
         <v>0.32440000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -8205,7 +9690,7 @@
         <v>0.33104</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8221,88 +9706,128 @@
       <c r="E23">
         <v>0.32941999999999999</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-    </row>
-    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>12.62656</v>
+      </c>
+      <c r="C33">
+        <v>12.428699999999999</v>
+      </c>
+      <c r="D33">
+        <v>12.247909999999999</v>
+      </c>
+      <c r="E33">
+        <v>12.650180000000001</v>
+      </c>
+      <c r="F33">
+        <v>12.770709999999999</v>
+      </c>
+      <c r="G33">
+        <v>12.75118</v>
+      </c>
+      <c r="H33">
+        <v>25.37932</v>
+      </c>
+      <c r="I33">
+        <v>61.291469999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f>G33/$B$33</f>
+        <v>1.0098696715494957</v>
+      </c>
+      <c r="H34">
+        <f>H33/$B$33</f>
+        <v>2.0099948046023619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>17.368480000000002</v>
+      </c>
+      <c r="C37">
+        <v>15.71823</v>
+      </c>
+      <c r="D37">
+        <v>13.77618</v>
+      </c>
+      <c r="E37">
+        <v>13.18591</v>
+      </c>
+      <c r="F37">
+        <v>12.62656</v>
+      </c>
+      <c r="G37">
+        <v>12.232239999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f>F37/G37</f>
+        <v>1.0322361235554567</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -147,12 +147,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,17 +211,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -254,7 +244,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$B$16:$G$16</c:f>
@@ -309,27 +298,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="115492352"/>
-        <c:axId val="115493888"/>
+        <c:dLbls/>
+        <c:axId val="89112960"/>
+        <c:axId val="89114496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115492352"/>
+        <c:axId val="89112960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -344,19 +322,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115493888"/>
+        <c:crossAx val="89114496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115493888"/>
+        <c:axId val="89114496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -378,11 +354,8 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -397,15 +370,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115492352"/>
+        <c:crossAx val="89112960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000009E-3"/>
+        <c:majorUnit val="2.0000000000000013E-3"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -414,7 +386,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -422,25 +394,13 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -454,7 +414,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$77:$A$81</c:f>
@@ -503,27 +462,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="117427200"/>
-        <c:axId val="117433088"/>
+        <c:dLbls/>
+        <c:axId val="92685440"/>
+        <c:axId val="92686976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117427200"/>
+        <c:axId val="92685440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -538,20 +486,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117433088"/>
+        <c:crossAx val="92686976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117433088"/>
+        <c:axId val="92686976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -573,11 +519,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -592,7 +536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117427200"/>
+        <c:crossAx val="92685440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -600,7 +544,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -609,7 +552,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -617,35 +560,23 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12896405861984062"/>
+          <c:x val="0.12896405861984064"/>
           <c:y val="5.4961175909611533E-2"/>
           <c:w val="0.85717692009169322"/>
-          <c:h val="0.75142961277034126"/>
+          <c:h val="0.75142961277034148"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -670,7 +601,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -754,7 +684,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -838,7 +767,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -922,7 +850,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -1003,7 +930,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -1087,7 +1013,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -1154,27 +1079,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="50"/>
-        <c:axId val="118063872"/>
-        <c:axId val="118065408"/>
+        <c:axId val="92787456"/>
+        <c:axId val="92788992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118063872"/>
+        <c:axId val="92787456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1189,19 +1104,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118065408"/>
+        <c:crossAx val="92788992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118065408"/>
+        <c:axId val="92788992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1227,11 +1140,8 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1246,7 +1156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118063872"/>
+        <c:crossAx val="92787456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1257,9 +1167,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.54238462379702534"/>
+          <c:x val="0.54238462379702523"/>
           <c:y val="4.5606975184439971E-2"/>
-          <c:w val="0.45761547755202375"/>
+          <c:w val="0.45761547755202381"/>
           <c:h val="0.11833327893934073"/>
         </c:manualLayout>
       </c:layout>
@@ -1280,7 +1190,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1299,7 +1208,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1308,35 +1217,23 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7473569043610366E-2"/>
+          <c:x val="8.7473569043610352E-2"/>
           <c:y val="5.675058463787272E-2"/>
-          <c:w val="0.70111336461730167"/>
+          <c:w val="0.70111336461730156"/>
           <c:h val="0.80802048169060992"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1361,7 +1258,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1418,7 +1314,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1461,22 +1356,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="116931200"/>
-        <c:axId val="116932992"/>
+        <c:dLbls/>
+        <c:axId val="94956544"/>
+        <c:axId val="94966528"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1491,7 +1377,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1563,7 +1448,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1606,27 +1490,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="116949376"/>
-        <c:axId val="116934912"/>
+        <c:dLbls/>
+        <c:axId val="94978816"/>
+        <c:axId val="94968448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116931200"/>
+        <c:axId val="94956544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1641,19 +1514,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116932992"/>
+        <c:crossAx val="94966528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116932992"/>
+        <c:axId val="94966528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1680,14 +1551,11 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="3.2359426993871988E-2"/>
-              <c:y val="0.3118292579557001"/>
+              <c:y val="0.31182925795570021"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1702,18 +1570,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116931200"/>
+        <c:crossAx val="94956544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116934912"/>
+        <c:axId val="94968448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.33200000000000007"/>
-          <c:min val="0.32000000000000006"/>
+          <c:max val="0.33200000000000013"/>
+          <c:min val="0.32000000000000012"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -1735,11 +1602,8 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1754,27 +1618,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116949376"/>
+        <c:crossAx val="94978816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000005E-3"/>
+        <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="116949376"/>
+        <c:axId val="94978816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116934912"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="94968448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
     </c:plotArea>
     <c:legend>
@@ -1791,8 +1652,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64982005931743558"/>
-          <c:y val="7.1468440809745876E-2"/>
+          <c:x val="0.64982005931743581"/>
+          <c:y val="7.146844080974589E-2"/>
           <c:w val="0.1263048363999773"/>
           <c:h val="0.11366750476508866"/>
         </c:manualLayout>
@@ -1814,7 +1675,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1823,7 +1683,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1832,17 +1692,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1851,16 +1701,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14471250832627197"/>
-          <c:y val="6.517388451443569E-2"/>
-          <c:w val="0.83315275912530884"/>
+          <c:x val="0.144712508326272"/>
+          <c:y val="6.5173884514435704E-2"/>
+          <c:w val="0.83315275912530873"/>
           <c:h val="0.79470866084864222"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1885,7 +1734,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1928,27 +1776,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="116971776"/>
-        <c:axId val="118095872"/>
+        <c:dLbls/>
+        <c:axId val="95024256"/>
+        <c:axId val="95025792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116971776"/>
+        <c:axId val="95024256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1963,19 +1800,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118095872"/>
+        <c:crossAx val="95025792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118095872"/>
+        <c:axId val="95025792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2005,14 +1840,11 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="6.567788687931643E-2"/>
-              <c:y val="0.36580052493438325"/>
+              <c:y val="0.36580052493438336"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2027,14 +1859,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116971776"/>
+        <c:crossAx val="95024256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2043,7 +1874,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2052,17 +1883,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2073,14 +1894,13 @@
           <c:yMode val="edge"/>
           <c:x val="0.17932822830135925"/>
           <c:y val="7.1101277253560469E-2"/>
-          <c:w val="0.79547131350849187"/>
-          <c:h val="0.70357593356736348"/>
+          <c:w val="0.79547131350849209"/>
+          <c:h val="0.70357593356736359"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2105,7 +1925,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>MPKI!$B$32:$I$32</c:f>
@@ -2173,24 +1992,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="118137216"/>
-        <c:axId val="118139136"/>
+        <c:dLbls/>
+        <c:axId val="96248576"/>
+        <c:axId val="96149888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118137216"/>
+        <c:axId val="96248576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2215,11 +2025,8 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2234,19 +2041,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118139136"/>
+        <c:crossAx val="96149888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118139136"/>
+        <c:axId val="96149888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2272,11 +2077,8 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2291,14 +2093,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118137216"/>
+        <c:crossAx val="96248576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2307,7 +2108,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2316,17 +2117,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2335,16 +2126,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17467082993936103"/>
-          <c:y val="7.9221924670583685E-2"/>
-          <c:w val="0.8000418137387999"/>
-          <c:h val="0.73699881423451508"/>
+          <c:x val="0.17467082993936101"/>
+          <c:y val="7.9221924670583699E-2"/>
+          <c:w val="0.80004181373880012"/>
+          <c:h val="0.73699881423451541"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2369,7 +2159,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$B$36:$G$36</c:f>
@@ -2424,27 +2213,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="118155904"/>
-        <c:axId val="118493568"/>
+        <c:dLbls/>
+        <c:axId val="96166272"/>
+        <c:axId val="96167808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118155904"/>
+        <c:axId val="96166272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2459,19 +2237,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118493568"/>
+        <c:crossAx val="96167808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118493568"/>
+        <c:axId val="96167808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2494,11 +2270,8 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2513,14 +2286,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118155904"/>
+        <c:crossAx val="96166272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2529,7 +2301,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2538,17 +2310,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2556,7 +2318,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2581,7 +2342,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$B$21:$I$21</c:f>
@@ -2648,27 +2408,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="115505792"/>
-        <c:axId val="115515776"/>
+        <c:dLbls/>
+        <c:axId val="90973696"/>
+        <c:axId val="90975232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115505792"/>
+        <c:axId val="90973696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2683,20 +2432,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115515776"/>
+        <c:crossAx val="90975232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115515776"/>
+        <c:axId val="90975232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.30000000000000004"/>
+          <c:min val="0.3000000000000001"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2722,15 +2469,12 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.0317456254476941E-2"/>
-              <c:y val="0.39632327209098861"/>
+              <c:x val="2.0317456254476937E-2"/>
+              <c:y val="0.39632327209098872"/>
             </c:manualLayout>
           </c:layout>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2745,15 +2489,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115505792"/>
+        <c:crossAx val="90973696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0000000000000002E-2"/>
+        <c:majorUnit val="1.0000000000000004E-2"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2762,7 +2505,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2770,17 +2513,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2788,7 +2521,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2813,7 +2545,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$35:$A$38</c:f>
@@ -2856,27 +2587,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="115527680"/>
-        <c:axId val="115529216"/>
+        <c:dLbls/>
+        <c:axId val="91024000"/>
+        <c:axId val="91099520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115527680"/>
+        <c:axId val="91024000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2891,19 +2611,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115529216"/>
+        <c:crossAx val="91099520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115529216"/>
+        <c:axId val="91099520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2925,11 +2643,8 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2944,10 +2659,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115527680"/>
+        <c:crossAx val="91024000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-3"/>
+        <c:majorUnit val="5.0000000000000018E-3"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
@@ -2957,7 +2672,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2966,7 +2680,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2974,17 +2688,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2992,7 +2696,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3017,7 +2720,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$46:$A$53</c:f>
@@ -3084,27 +2786,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="115045504"/>
-        <c:axId val="115047040"/>
+        <c:dLbls/>
+        <c:axId val="91144192"/>
+        <c:axId val="91145728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115045504"/>
+        <c:axId val="91144192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3119,19 +2810,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115047040"/>
+        <c:crossAx val="91145728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115047040"/>
+        <c:axId val="91145728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3153,12 +2842,8 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3173,15 +2858,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115045504"/>
+        <c:crossAx val="91144192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000005E-3"/>
+        <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3190,7 +2874,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3198,35 +2882,23 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1557331996418595"/>
+          <c:x val="0.15573319964185953"/>
           <c:y val="6.3075030750307501E-2"/>
-          <c:w val="0.82864734878537238"/>
-          <c:h val="0.73540711470106823"/>
+          <c:w val="0.8286473487853725"/>
+          <c:h val="0.73540711470106812"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3251,7 +2923,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3335,7 +3006,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3419,7 +3089,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3503,7 +3172,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3584,7 +3252,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3668,7 +3335,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3735,27 +3401,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="58"/>
-        <c:axId val="115110272"/>
-        <c:axId val="115111808"/>
+        <c:axId val="92245376"/>
+        <c:axId val="91047040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115110272"/>
+        <c:axId val="92245376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3770,20 +3426,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115111808"/>
+        <c:crossAx val="91047040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115111808"/>
+        <c:axId val="91047040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.32200000000000006"/>
+          <c:min val="0.32200000000000012"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3805,12 +3459,8 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3825,10 +3475,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115110272"/>
+        <c:crossAx val="92245376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000005E-3"/>
+        <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3837,10 +3487,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24115728843637327"/>
-          <c:y val="5.0212395037336197E-2"/>
-          <c:w val="0.56696015284477508"/>
-          <c:h val="0.12747305110846385"/>
+          <c:x val="0.24115728843637332"/>
+          <c:y val="5.021239503733621E-2"/>
+          <c:w val="0.56696015284477519"/>
+          <c:h val="0.12747305110846388"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3860,7 +3510,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3869,7 +3518,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3878,19 +3527,8 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3898,15 +3536,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.14150416162047774"/>
-          <c:y val="5.7802663555944399E-2"/>
+          <c:y val="5.780266355594442E-2"/>
           <c:w val="0.84138187703771905"/>
-          <c:h val="0.73993311947117724"/>
+          <c:h val="0.73993311947117735"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3931,7 +3568,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -4015,7 +3651,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -4099,7 +3734,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -4183,7 +3817,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -4264,7 +3897,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -4348,7 +3980,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -4415,43 +4046,31 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="50"/>
-        <c:axId val="117262208"/>
-        <c:axId val="117263744"/>
+        <c:axId val="92405760"/>
+        <c:axId val="92407296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117262208"/>
+        <c:axId val="92405760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117263744"/>
+        <c:crossAx val="92407296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117263744"/>
+        <c:axId val="92407296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
           <c:min val="150"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4470,13 +4089,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117262208"/>
+        <c:crossAx val="92405760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4489,7 +4106,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.26746965487620494"/>
           <c:y val="0"/>
-          <c:w val="0.55218631162404264"/>
+          <c:w val="0.55218631162404253"/>
           <c:h val="0.11701837270341207"/>
         </c:manualLayout>
       </c:layout>
@@ -4507,7 +4124,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4529,7 +4145,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4538,17 +4154,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -4557,16 +4163,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17541470926853467"/>
+          <c:x val="0.1754147092685347"/>
           <c:y val="4.1673488244832232E-2"/>
-          <c:w val="0.80389887794350112"/>
+          <c:w val="0.80389887794350134"/>
           <c:h val="0.81250182220238665"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4591,7 +4196,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$38:$A$43</c:f>
@@ -4646,27 +4250,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="117301632"/>
-        <c:axId val="117303168"/>
+        <c:dLbls/>
+        <c:axId val="92440064"/>
+        <c:axId val="92441600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117301632"/>
+        <c:axId val="92440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4678,20 +4271,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117303168"/>
+        <c:crossAx val="92441600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117303168"/>
+        <c:axId val="92441600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4710,11 +4301,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4726,14 +4315,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117301632"/>
+        <c:crossAx val="92440064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4755,7 +4343,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4764,24 +4352,12 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4875,7 +4451,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4971,27 +4546,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="117332224"/>
-        <c:axId val="117347072"/>
+        <c:axId val="92503424"/>
+        <c:axId val="92521984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117332224"/>
+        <c:axId val="92503424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5012,11 +4577,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -5031,20 +4594,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117347072"/>
+        <c:crossAx val="92521984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117347072"/>
+        <c:axId val="92521984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5066,11 +4627,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -5085,14 +4644,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117332224"/>
+        <c:crossAx val="92503424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -5109,7 +4668,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -5118,7 +4676,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5126,35 +4684,23 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17354812731553082"/>
-          <c:y val="5.1337891974029562E-2"/>
+          <c:x val="0.17354812731553085"/>
+          <c:y val="5.1337891974029569E-2"/>
           <c:w val="0.81035235020759966"/>
-          <c:h val="0.71869802458903165"/>
+          <c:h val="0.71869802458903176"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5179,7 +4725,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5257,7 +4802,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5335,7 +4879,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5413,7 +4956,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5488,7 +5030,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5566,7 +5107,6 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5621,27 +5161,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="48"/>
-        <c:axId val="117396224"/>
-        <c:axId val="117397760"/>
+        <c:axId val="92568960"/>
+        <c:axId val="92578944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117396224"/>
+        <c:axId val="92568960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -5653,21 +5183,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117397760"/>
+        <c:crossAx val="92578944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117397760"/>
+        <c:axId val="92578944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="50"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5691,13 +5219,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117396224"/>
+        <c:crossAx val="92568960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5709,9 +5235,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.24637397727120816"/>
-          <c:y val="4.4717093290168E-2"/>
+          <c:y val="4.4717093290168014E-2"/>
           <c:w val="0.58438592940918321"/>
-          <c:h val="0.11363551595524243"/>
+          <c:h val="0.11363551595524245"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5728,7 +5254,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -5750,7 +5275,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -7748,7 +7273,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7783,7 +7307,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7959,20 +7482,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7992,7 +7515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8019,7 +7542,7 @@
         <v>0.3276</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8046,7 +7569,7 @@
         <v>0.3286</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8073,7 +7596,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -8100,7 +7623,7 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -8112,7 +7635,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -8124,7 +7647,7 @@
         <v>0.32668999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -8136,7 +7659,7 @@
         <v>0.33104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -8148,7 +7671,7 @@
         <v>0.32941999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -8168,7 +7691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -8191,7 +7714,7 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -8199,7 +7722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -8225,7 +7748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -8254,18 +7777,18 @@
         <v>0.30529000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="G24" s="2">
         <f>G22/B22</f>
         <v>0.99941981189690987</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="B34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -8273,7 +7796,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -8281,7 +7804,7 @@
         <v>0.32440000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -8294,7 +7817,7 @@
         <v>1.0043689320388349</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -8307,18 +7830,18 @@
         <v>1.0154747225647347</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="B39" s="2">
         <f>B38/B37</f>
         <v>0.99510633156114059</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="B45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8330,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -8342,7 +7865,7 @@
         <v>1.003052503052503</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -8354,7 +7877,7 @@
         <v>0.99206349206349209</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -8366,7 +7889,7 @@
         <v>0.99877899877899878</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -8379,7 +7902,7 @@
         <v>1.0061050061050061</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -8392,7 +7915,7 @@
         <v>0.99023199023199027</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -8405,7 +7928,7 @@
         <v>1.0105006105006105</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -8426,25 +7949,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -8464,7 +7987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8487,7 +8010,7 @@
         <v>248.94800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -8510,7 +8033,7 @@
         <v>197.11199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8533,7 +8056,7 @@
         <v>200.99199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -8562,7 +8085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -8570,7 +8093,7 @@
         <v>221.874</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -8578,7 +8101,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -8594,7 +8117,7 @@
         <v>0.82838518518518511</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8602,12 +8125,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -8627,7 +8150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -8650,7 +8173,7 @@
         <v>0.3276</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -8673,7 +8196,7 @@
         <v>0.3286</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -8696,7 +8219,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -8719,7 +8242,7 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8727,7 +8250,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -8735,7 +8258,7 @@
         <v>0.32668999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -8743,7 +8266,7 @@
         <v>0.33104</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8751,12 +8274,12 @@
         <v>0.32941999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -8776,7 +8299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -8809,7 +8332,7 @@
         <v>84.499800000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -8842,7 +8365,7 @@
         <v>77.900270000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -8875,7 +8398,7 @@
         <v>81.547200000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -8908,7 +8431,7 @@
         <v>84.7029414</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -8921,7 +8444,7 @@
         <v>73.129670399999995</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -8934,7 +8457,7 @@
         <v>88.206299999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -8947,7 +8470,7 @@
         <v>74.041730559999991</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -8960,12 +8483,12 @@
         <v>88.943399999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -8977,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -8989,7 +8512,7 @@
         <v>0.92189886839968849</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -9001,7 +8524,7 @@
         <v>0.96505790546249814</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -9013,7 +8536,7 @@
         <v>1.0024040459267358</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -9025,7 +8548,7 @@
         <v>0.87623557168182631</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -9037,7 +8560,7 @@
         <v>1.0553784117832232</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="B50">
         <v>3</v>
       </c>
@@ -9060,7 +8583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -9086,7 +8609,7 @@
         <v>0.31917000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -9112,7 +8635,7 @@
         <v>0.31151000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="B54">
         <v>3</v>
       </c>
@@ -9135,7 +8658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -9171,7 +8694,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -9207,12 +8730,12 @@
         <v>259.60000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -9232,7 +8755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -9255,7 +8778,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -9278,7 +8801,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -9301,7 +8824,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -9324,7 +8847,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -9332,7 +8855,7 @@
         <v>676.6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -9340,7 +8863,7 @@
         <v>432.6</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -9348,7 +8871,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -9356,7 +8879,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -9368,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -9380,7 +8903,7 @@
         <v>1.0405405405405406</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -9392,7 +8915,7 @@
         <v>0.95945945945945943</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -9404,7 +8927,7 @@
         <v>6.4527027027027026</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -9424,24 +8947,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -9461,7 +8984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9488,7 +9011,7 @@
         <v>2.3137301008770899</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -9515,7 +9038,7 @@
         <v>2.3151409692665834</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9542,7 +9065,7 @@
         <v>3.6765349072354034</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -9573,7 +9096,7 @@
         <v>0.80440149768643421</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -9585,7 +9108,7 @@
         <v>2.3866955110870745</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -9597,7 +9120,7 @@
         <v>2.3877536623791946</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -9609,7 +9132,7 @@
         <v>1.0006348907752722</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -9625,7 +9148,7 @@
         <v>2.3137301008770899</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -9639,7 +9162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -9656,7 +9179,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -9673,7 +9196,7 @@
         <v>0.32440000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -9690,7 +9213,7 @@
         <v>0.33104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9707,7 +9230,7 @@
         <v>0.32941999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -9715,7 +9238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32">
         <v>8</v>
       </c>
@@ -9741,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9770,7 +9293,7 @@
         <v>61.291469999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="G34">
         <f>G33/$B$33</f>
         <v>1.0098696715494957</v>
@@ -9780,7 +9303,7 @@
         <v>2.0099948046023619</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -9800,7 +9323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -9823,7 +9346,7 @@
         <v>12.232239999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="F38">
         <f>F37/G37</f>
         <v>1.0322361235554567</v>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="1"/>
@@ -99,9 +99,6 @@
     <t>Bimodal 1KB</t>
   </si>
   <si>
-    <t>Perceptron 1KB</t>
-  </si>
-  <si>
     <t>MIPS</t>
   </si>
   <si>
@@ -143,16 +140,19 @@
   <si>
     <t>dums</t>
   </si>
+  <si>
+    <t>Perceptron 1KB+384B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,7 +211,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -244,6 +254,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$B$16:$G$16</c:f>
@@ -298,16 +309,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="89112960"/>
-        <c:axId val="89114496"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="124393344"/>
+        <c:axId val="124394880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89112960"/>
+        <c:axId val="124393344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -322,17 +344,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89114496"/>
+        <c:crossAx val="124394880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89114496"/>
+        <c:axId val="124394880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -354,8 +378,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -370,7 +397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89112960"/>
+        <c:crossAx val="124393344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -378,6 +405,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -394,13 +422,25 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -414,6 +454,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$77:$A$81</c:f>
@@ -429,7 +470,7 @@
                   <c:v>Bimodal 1KB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Perceptron 1KB</c:v>
+                  <c:v>Perceptron 1KB+384B</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>O-TAGE-SC</c:v>
@@ -462,16 +503,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92685440"/>
-        <c:axId val="92686976"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="133699072"/>
+        <c:axId val="133700608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92685440"/>
+        <c:axId val="133699072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -486,18 +538,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92686976"/>
+        <c:crossAx val="133700608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92686976"/>
+        <c:axId val="133700608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -520,8 +574,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -536,7 +593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92685440"/>
+        <c:crossAx val="133699072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -544,6 +601,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -560,8 +618,19 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -577,6 +646,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -601,6 +671,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -684,6 +755,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -767,6 +839,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -850,6 +923,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -930,6 +1004,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -1013,6 +1088,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -1079,17 +1155,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="92787456"/>
-        <c:axId val="92788992"/>
+        <c:axId val="133420544"/>
+        <c:axId val="133422080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92787456"/>
+        <c:axId val="133420544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1104,17 +1190,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92788992"/>
+        <c:crossAx val="133422080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92788992"/>
+        <c:axId val="133422080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1139,9 +1227,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1156,7 +1246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92787456"/>
+        <c:crossAx val="133420544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,6 +1280,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1217,8 +1308,19 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1234,6 +1336,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1258,6 +1361,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1314,6 +1418,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1356,13 +1461,22 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="94956544"/>
-        <c:axId val="94966528"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="133485696"/>
+        <c:axId val="133487232"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1377,6 +1491,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1448,6 +1563,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1490,16 +1606,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="94978816"/>
-        <c:axId val="94968448"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="134032000"/>
+        <c:axId val="134030080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94956544"/>
+        <c:axId val="133485696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1514,17 +1641,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94966528"/>
+        <c:crossAx val="133487232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94966528"/>
+        <c:axId val="133487232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1554,8 +1683,11 @@
               <c:y val="0.31182925795570021"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1570,17 +1702,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94956544"/>
+        <c:crossAx val="133485696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94968448"/>
+        <c:axId val="134030080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
           <c:min val="0.32000000000000012"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -1601,9 +1734,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1618,24 +1753,27 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94978816"/>
+        <c:crossAx val="134032000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="94978816"/>
+        <c:axId val="134032000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="94968448"/>
+        <c:crossAx val="134030080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
     </c:plotArea>
     <c:legend>
@@ -1675,6 +1813,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1692,7 +1831,17 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1710,6 +1859,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1734,6 +1884,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1776,16 +1927,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="95024256"/>
-        <c:axId val="95025792"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="134071424"/>
+        <c:axId val="134072960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95024256"/>
+        <c:axId val="134071424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1800,17 +1962,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95025792"/>
+        <c:crossAx val="134072960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95025792"/>
+        <c:axId val="134072960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1843,8 +2007,11 @@
               <c:y val="0.36580052493438336"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1859,13 +2026,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95024256"/>
+        <c:crossAx val="134071424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1883,7 +2051,17 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1901,6 +2079,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1925,6 +2104,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>MPKI!$B$32:$I$32</c:f>
@@ -1992,15 +2172,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="96248576"/>
-        <c:axId val="96149888"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="134110592"/>
+        <c:axId val="134112768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96248576"/>
+        <c:axId val="134110592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2024,9 +2213,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2041,17 +2232,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96149888"/>
+        <c:crossAx val="134112768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96149888"/>
+        <c:axId val="134112768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2076,9 +2269,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2093,13 +2288,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96248576"/>
+        <c:crossAx val="134110592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2117,7 +2313,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2135,6 +2341,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2159,6 +2366,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$B$36:$G$36</c:f>
@@ -2213,16 +2421,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="96166272"/>
-        <c:axId val="96167808"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="134134016"/>
+        <c:axId val="134217728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96166272"/>
+        <c:axId val="134134016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2237,17 +2456,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96167808"/>
+        <c:crossAx val="134217728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96167808"/>
+        <c:axId val="134217728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2269,9 +2490,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2286,13 +2509,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96166272"/>
+        <c:crossAx val="134134016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2310,7 +2534,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2318,6 +2552,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2342,6 +2577,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$B$21:$I$21</c:f>
@@ -2408,16 +2644,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="90973696"/>
-        <c:axId val="90975232"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="124423552"/>
+        <c:axId val="124429440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90973696"/>
+        <c:axId val="124423552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2432,18 +2679,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90975232"/>
+        <c:crossAx val="124429440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90975232"/>
+        <c:axId val="124429440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2473,8 +2722,11 @@
               <c:y val="0.39632327209098872"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2489,7 +2741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90973696"/>
+        <c:crossAx val="124423552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -2497,6 +2749,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2513,7 +2766,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2521,6 +2784,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2545,6 +2809,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$35:$A$38</c:f>
@@ -2587,16 +2852,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="91024000"/>
-        <c:axId val="91099520"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="124449920"/>
+        <c:axId val="124451456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91024000"/>
+        <c:axId val="124449920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2611,17 +2887,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91099520"/>
+        <c:crossAx val="124451456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91099520"/>
+        <c:axId val="124451456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2643,8 +2921,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2659,7 +2940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91024000"/>
+        <c:crossAx val="124449920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -2672,6 +2953,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2688,7 +2970,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2696,6 +2988,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2720,6 +3013,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$46:$A$53</c:f>
@@ -2786,16 +3080,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="91144192"/>
-        <c:axId val="91145728"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="124549760"/>
+        <c:axId val="124551552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91144192"/>
+        <c:axId val="124549760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2810,17 +3115,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91145728"/>
+        <c:crossAx val="124551552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91145728"/>
+        <c:axId val="124551552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2842,8 +3149,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2858,7 +3168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91144192"/>
+        <c:crossAx val="124549760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -2866,6 +3176,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2882,8 +3193,19 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2899,6 +3221,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2923,6 +3246,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3006,6 +3330,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3089,6 +3414,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3172,6 +3498,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3252,6 +3579,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3335,6 +3663,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3401,17 +3730,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="92245376"/>
-        <c:axId val="91047040"/>
+        <c:axId val="133208704"/>
+        <c:axId val="133222784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92245376"/>
+        <c:axId val="133208704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3426,18 +3765,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91047040"/>
+        <c:crossAx val="133222784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91047040"/>
+        <c:axId val="133222784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3459,8 +3800,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3475,7 +3819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92245376"/>
+        <c:crossAx val="133208704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -3510,6 +3854,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3527,8 +3872,19 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3544,6 +3900,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3568,6 +3925,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3651,6 +4009,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3734,6 +4093,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3817,6 +4177,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3897,6 +4258,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3980,6 +4342,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -4046,31 +4409,43 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="92405760"/>
-        <c:axId val="92407296"/>
+        <c:axId val="132966272"/>
+        <c:axId val="132967808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92405760"/>
+        <c:axId val="132966272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92407296"/>
+        <c:crossAx val="132967808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92407296"/>
+        <c:axId val="132967808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
           <c:min val="150"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4090,10 +4465,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92405760"/>
+        <c:crossAx val="132966272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4124,6 +4502,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4154,7 +4533,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -4172,6 +4561,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4196,6 +4586,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$38:$A$43</c:f>
@@ -4250,16 +4641,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92440064"/>
-        <c:axId val="92441600"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="133139456"/>
+        <c:axId val="133153536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92440064"/>
+        <c:axId val="133139456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4271,18 +4673,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92441600"/>
+        <c:crossAx val="133153536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92441600"/>
+        <c:axId val="133153536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4302,8 +4706,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4315,13 +4722,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92440064"/>
+        <c:crossAx val="133139456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4352,12 +4760,24 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4451,6 +4871,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4546,17 +4967,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92503424"/>
-        <c:axId val="92521984"/>
+        <c:smooth val="0"/>
+        <c:axId val="133572864"/>
+        <c:axId val="133603712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92503424"/>
+        <c:axId val="133572864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4578,8 +5009,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4594,18 +5028,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92521984"/>
+        <c:crossAx val="133603712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92521984"/>
+        <c:axId val="133603712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4628,8 +5064,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4644,7 +5083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92503424"/>
+        <c:crossAx val="133572864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4652,6 +5091,7 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4668,6 +5108,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4684,8 +5125,19 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -4701,6 +5153,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4725,6 +5178,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -4802,6 +5256,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -4879,6 +5334,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -4956,6 +5412,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5030,6 +5487,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5107,6 +5565,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5161,17 +5620,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="92568960"/>
-        <c:axId val="92578944"/>
+        <c:axId val="133651072"/>
+        <c:axId val="133665152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92568960"/>
+        <c:axId val="133651072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -5183,19 +5652,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92578944"/>
+        <c:crossAx val="133665152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92578944"/>
+        <c:axId val="133665152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="50"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5220,10 +5691,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92568960"/>
+        <c:crossAx val="133651072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5254,6 +5728,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -7273,6 +7748,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7307,6 +7783,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7482,20 +7959,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7515,7 +7992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7542,7 +8019,7 @@
         <v>0.3276</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7569,7 +8046,7 @@
         <v>0.3286</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7596,7 +8073,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -7623,9 +8100,9 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>0.3296</v>
@@ -7635,7 +8112,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -7647,9 +8124,9 @@
         <v>0.32668999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>0.33104</v>
@@ -7659,7 +8136,7 @@
         <v>0.33104</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7671,7 +8148,7 @@
         <v>0.32941999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -7691,7 +8168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -7714,7 +8191,7 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -7722,7 +8199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -7748,7 +8225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -7777,18 +8254,18 @@
         <v>0.30529000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24" s="2">
         <f>G22/B22</f>
         <v>0.99941981189690987</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -7796,7 +8273,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -7804,9 +8281,9 @@
         <v>0.32440000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <f>G8</f>
@@ -7817,7 +8294,7 @@
         <v>1.0043689320388349</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -7830,18 +8307,18 @@
         <v>1.0154747225647347</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f>B38/B37</f>
         <v>0.99510633156114059</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -7853,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -7865,7 +8342,7 @@
         <v>1.003052503052503</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -7877,7 +8354,7 @@
         <v>0.99206349206349209</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -7889,9 +8366,9 @@
         <v>0.99877899877899878</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50">
         <f>B35</f>
@@ -7902,7 +8379,7 @@
         <v>1.0061050061050061</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -7915,9 +8392,9 @@
         <v>0.99023199023199027</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52">
         <f>B37</f>
@@ -7928,7 +8405,7 @@
         <v>1.0105006105006105</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -7949,25 +8426,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7987,7 +8464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8010,7 +8487,7 @@
         <v>248.94800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -8033,7 +8510,7 @@
         <v>197.11199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8056,7 +8533,7 @@
         <v>200.99199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -8079,21 +8556,21 @@
         <v>165.018</v>
       </c>
       <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>221.874</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -8101,9 +8578,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>223.66399999999999</v>
@@ -8117,7 +8594,7 @@
         <v>0.82838518518518511</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8125,12 +8602,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -8150,7 +8627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -8173,7 +8650,7 @@
         <v>0.3276</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -8196,7 +8673,7 @@
         <v>0.3286</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -8219,7 +8696,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -8242,15 +8719,15 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>0.3296</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -8258,15 +8735,15 @@
         <v>0.32668999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>0.33104</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8274,12 +8751,12 @@
         <v>0.32941999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -8299,7 +8776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -8332,7 +8809,7 @@
         <v>84.499800000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -8365,7 +8842,7 @@
         <v>77.900270000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -8398,7 +8875,7 @@
         <v>81.547200000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -8431,9 +8908,9 @@
         <v>84.7029414</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <f>G7*G18</f>
@@ -8444,7 +8921,7 @@
         <v>73.129670399999995</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -8457,9 +8934,9 @@
         <v>88.206299999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <f>G9*G20</f>
@@ -8470,7 +8947,7 @@
         <v>74.041730559999991</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -8483,12 +8960,12 @@
         <v>88.943399999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -8500,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -8512,7 +8989,7 @@
         <v>0.92189886839968849</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -8524,7 +9001,7 @@
         <v>0.96505790546249814</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -8536,9 +9013,9 @@
         <v>1.0024040459267358</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42">
         <v>74.041730559999991</v>
@@ -8548,7 +9025,7 @@
         <v>0.87623557168182631</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -8560,7 +9037,7 @@
         <v>1.0553784117832232</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3</v>
       </c>
@@ -8583,7 +9060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -8609,9 +9086,9 @@
         <v>0.31917000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>0.32340999999999998</v>
@@ -8635,7 +9112,7 @@
         <v>0.31151000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3</v>
       </c>
@@ -8658,7 +9135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -8694,9 +9171,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <f t="shared" ref="B56:H56" si="4">B52*$J$56</f>
@@ -8730,12 +9207,12 @@
         <v>259.60000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -8755,7 +9232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -8778,7 +9255,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -8801,7 +9278,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -8824,7 +9301,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -8847,15 +9324,15 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>676.6</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -8863,15 +9340,15 @@
         <v>432.6</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71">
         <v>748</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -8879,9 +9356,9 @@
         <v>433</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77">
         <v>148</v>
@@ -8891,7 +9368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -8903,7 +9380,7 @@
         <v>1.0405405405405406</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -8915,9 +9392,9 @@
         <v>0.95945945945945943</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>955</v>
@@ -8927,7 +9404,7 @@
         <v>6.4527027027027026</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -8947,24 +9424,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -8984,7 +9461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9011,7 +9488,7 @@
         <v>2.3137301008770899</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -9038,7 +9515,7 @@
         <v>2.3151409692665834</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9065,7 +9542,7 @@
         <v>3.6765349072354034</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -9096,9 +9573,9 @@
         <v>0.80440149768643421</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>10.149900000000001</v>
@@ -9108,7 +9585,7 @@
         <v>2.3866955110870745</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -9120,9 +9597,9 @@
         <v>2.3877536623791946</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>4.2553999999999998</v>
@@ -9132,7 +9609,7 @@
         <v>1.0006348907752722</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -9148,23 +9625,23 @@
         <v>2.3137301008770899</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>10.149900000000001</v>
@@ -9179,7 +9656,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -9196,9 +9673,9 @@
         <v>0.32440000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>4.2553999999999998</v>
@@ -9213,7 +9690,7 @@
         <v>0.33104</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9230,7 +9707,7 @@
         <v>0.32941999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -9238,7 +9715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>8</v>
       </c>
@@ -9264,9 +9741,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>12.62656</v>
@@ -9293,7 +9770,7 @@
         <v>61.291469999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G34">
         <f>G33/$B$33</f>
         <v>1.0098696715494957</v>
@@ -9303,7 +9780,7 @@
         <v>2.0099948046023619</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -9323,9 +9800,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>17.368480000000002</v>
@@ -9346,7 +9823,7 @@
         <v>12.232239999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38">
         <f>F37/G37</f>
         <v>1.0322361235554567</v>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -318,11 +318,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="124393344"/>
-        <c:axId val="124394880"/>
+        <c:axId val="106160896"/>
+        <c:axId val="106162816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124393344"/>
+        <c:axId val="106160896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -344,7 +344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124394880"/>
+        <c:crossAx val="106162816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -352,7 +352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124394880"/>
+        <c:axId val="106162816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,6 +378,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -397,7 +398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124393344"/>
+        <c:crossAx val="106160896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -512,11 +513,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133699072"/>
-        <c:axId val="133700608"/>
+        <c:axId val="104086144"/>
+        <c:axId val="104087936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133699072"/>
+        <c:axId val="104086144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133700608"/>
+        <c:crossAx val="104087936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -546,7 +547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133700608"/>
+        <c:axId val="104087936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -593,7 +594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133699072"/>
+        <c:crossAx val="104086144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1164,11 +1165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="133420544"/>
-        <c:axId val="133422080"/>
+        <c:axId val="133443968"/>
+        <c:axId val="133445504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133420544"/>
+        <c:axId val="133443968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133422080"/>
+        <c:crossAx val="133445504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1198,7 +1199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133422080"/>
+        <c:axId val="133445504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,6 +1228,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1246,7 +1248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133420544"/>
+        <c:crossAx val="133443968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1257,19 +1259,19 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.54238462379702523"/>
-          <c:y val="4.5606975184439971E-2"/>
-          <c:w val="0.45761547755202381"/>
-          <c:h val="0.11833327893934073"/>
+          <c:x val="0.48146959271840167"/>
+          <c:y val="4.9937617299334339E-2"/>
+          <c:w val="0.49671560909892515"/>
+          <c:h val="0.10728408959988173"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600">
+            <a:defRPr sz="1400">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
@@ -1470,8 +1472,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133485696"/>
-        <c:axId val="133487232"/>
+        <c:axId val="133466368"/>
+        <c:axId val="133492736"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1615,11 +1617,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="134032000"/>
-        <c:axId val="134030080"/>
+        <c:axId val="142606336"/>
+        <c:axId val="133494656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133485696"/>
+        <c:axId val="133466368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133487232"/>
+        <c:crossAx val="133492736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1649,7 +1651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133487232"/>
+        <c:axId val="133492736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,12 +1704,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133485696"/>
+        <c:crossAx val="133466368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134030080"/>
+        <c:axId val="133494656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1734,6 +1736,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1753,13 +1756,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134032000"/>
+        <c:crossAx val="142606336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="134032000"/>
+        <c:axId val="142606336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="134030080"/>
+        <c:crossAx val="133494656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1936,11 +1939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="134071424"/>
-        <c:axId val="134072960"/>
+        <c:axId val="142935936"/>
+        <c:axId val="142937472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134071424"/>
+        <c:axId val="142935936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +1965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134072960"/>
+        <c:crossAx val="142937472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1970,7 +1973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134072960"/>
+        <c:axId val="142937472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,7 +2029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134071424"/>
+        <c:crossAx val="142935936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2181,11 +2184,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="134110592"/>
-        <c:axId val="134112768"/>
+        <c:axId val="143392768"/>
+        <c:axId val="143394688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134110592"/>
+        <c:axId val="143392768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,6 +2216,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2232,7 +2236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134112768"/>
+        <c:crossAx val="143394688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134112768"/>
+        <c:axId val="143394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,6 +2273,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2288,7 +2293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134110592"/>
+        <c:crossAx val="143392768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2430,11 +2435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="134134016"/>
-        <c:axId val="134217728"/>
+        <c:axId val="143452416"/>
+        <c:axId val="143454208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134134016"/>
+        <c:axId val="143452416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134217728"/>
+        <c:crossAx val="143454208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2464,7 +2469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134217728"/>
+        <c:axId val="143454208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,6 +2495,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2509,7 +2515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134134016"/>
+        <c:crossAx val="143452416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2653,11 +2659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="124423552"/>
-        <c:axId val="124429440"/>
+        <c:axId val="143497472"/>
+        <c:axId val="145469440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124423552"/>
+        <c:axId val="143497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +2685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124429440"/>
+        <c:crossAx val="145469440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2687,7 +2693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124429440"/>
+        <c:axId val="145469440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -2741,7 +2747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124423552"/>
+        <c:crossAx val="143497472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -2861,11 +2867,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="124449920"/>
-        <c:axId val="124451456"/>
+        <c:axId val="145527552"/>
+        <c:axId val="145529088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124449920"/>
+        <c:axId val="145527552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,7 +2893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124451456"/>
+        <c:crossAx val="145529088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2895,7 +2901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124451456"/>
+        <c:axId val="145529088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,6 +2927,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2940,7 +2947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124449920"/>
+        <c:crossAx val="145527552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -3089,11 +3096,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="124549760"/>
-        <c:axId val="124551552"/>
+        <c:axId val="146967552"/>
+        <c:axId val="149271296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124549760"/>
+        <c:axId val="146967552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124551552"/>
+        <c:crossAx val="149271296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3123,7 +3130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124551552"/>
+        <c:axId val="149271296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,6 +3156,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3168,7 +3176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124549760"/>
+        <c:crossAx val="146967552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -3739,11 +3747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="133208704"/>
-        <c:axId val="133222784"/>
+        <c:axId val="76860416"/>
+        <c:axId val="76862208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133208704"/>
+        <c:axId val="76860416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3765,7 +3773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133222784"/>
+        <c:crossAx val="76862208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3773,7 +3781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133222784"/>
+        <c:axId val="76862208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -3800,6 +3808,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3819,7 +3828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133208704"/>
+        <c:crossAx val="76860416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -4418,11 +4427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="132966272"/>
-        <c:axId val="132967808"/>
+        <c:axId val="90179456"/>
+        <c:axId val="90180992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132966272"/>
+        <c:axId val="90179456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,7 +4440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132967808"/>
+        <c:crossAx val="90180992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4439,7 +4448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132967808"/>
+        <c:axId val="90180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -4471,7 +4480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132966272"/>
+        <c:crossAx val="90179456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4650,11 +4659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133139456"/>
-        <c:axId val="133153536"/>
+        <c:axId val="90194304"/>
+        <c:axId val="90195840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133139456"/>
+        <c:axId val="90194304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133153536"/>
+        <c:crossAx val="90195840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4681,7 +4690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133153536"/>
+        <c:axId val="90195840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -4722,7 +4731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133139456"/>
+        <c:crossAx val="90194304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4979,11 +4988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133572864"/>
-        <c:axId val="133603712"/>
+        <c:axId val="90204416"/>
+        <c:axId val="90211072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133572864"/>
+        <c:axId val="90204416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133603712"/>
+        <c:crossAx val="90211072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5036,7 +5045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133603712"/>
+        <c:axId val="90211072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -5083,7 +5092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133572864"/>
+        <c:crossAx val="90204416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5629,11 +5638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="133651072"/>
-        <c:axId val="133665152"/>
+        <c:axId val="90231168"/>
+        <c:axId val="90232704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133651072"/>
+        <c:axId val="90231168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5652,7 +5661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133665152"/>
+        <c:crossAx val="90232704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5660,7 +5669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133665152"/>
+        <c:axId val="90232704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -5697,7 +5706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133651072"/>
+        <c:crossAx val="90231168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8429,8 +8438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9427,7 +9436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
